--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -58,7 +58,7 @@
     <t>API_TC_01</t>
   </si>
   <si>
-    <t>Проверка корректного ответа для валидного "petId" в GET /pet/{petId}</t>
+    <t>Корректный ответ для валидного "petId" в GET /pet/{petId}</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта GET /pet/{petId}, если передан существующий "petId"</t>
@@ -122,7 +122,7 @@
     <t>API_TC_02</t>
   </si>
   <si>
-    <t>Проверка ответа для несуществующего "petId" в GET /pet/{petId}</t>
+    <t>Ответ для несуществующего "petId" в GET /pet/{petId}</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/{petId}, если передан несуществующий "petId"</t>
@@ -195,7 +195,7 @@
     <t>API_TC_03</t>
   </si>
   <si>
-    <t>Проверка ответа для невалидного "petId" в GET /pet/{petId}</t>
+    <t>Ответ для невалидного "petId" в GET /pet/{petId}</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/{petId}, если передан невалидный "petId"</t>
@@ -272,7 +272,7 @@
     <t>API_TC_04</t>
   </si>
   <si>
-    <t>Проверка ответа при запросе без параметра "petId" в GET /pet/{petId}</t>
+    <t>Ответ при запросе без параметра "petId" в GET /pet/{petId}</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/{petId}, если "petId" не передан</t>
@@ -322,7 +322,7 @@
     <t>API_TC_05</t>
   </si>
   <si>
-    <t>Проверка ответа для эндпоинта GET /pet/{petId}, изменив метод запроса</t>
+    <t>Ответ для эндпоинта GET /pet/{petId}, изменив метод запроса</t>
   </si>
   <si>
     <t>Ответ от эндопинта GET /pet/{petId}, изменив метод GET на PUT</t>
@@ -363,7 +363,7 @@
     <t>API_TC_06</t>
   </si>
   <si>
-    <t>Проверка корректного ответа для валидного "status"="available" в GET /pet/findByStatus</t>
+    <t>Корректный ответ для валидного "status"="available" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта GET /pet/findByStatus, если передан существующий "status"="available"</t>
@@ -428,7 +428,7 @@
     <t>API_TC_07</t>
   </si>
   <si>
-    <t>Проверка корректного ответа для валидного "status"="pending" в GET /pet/findByStatus</t>
+    <t>Корректный ответ для валидного "status"="pending" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Корректный ответа от эндпоинта GET /pet/findByStatus, если передан существующий "status"="pending"</t>
@@ -493,7 +493,7 @@
     <t>API_TC_08</t>
   </si>
   <si>
-    <t>Проверка корректного ответа для валидного "status"="sold" в GET /pet/findByStatus</t>
+    <t>Корректный ответ для валидного "status"="sold" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта GET /pet/findByStatus, если передан существующий "status"="sold"</t>
@@ -558,7 +558,7 @@
     <t>API_TC_09</t>
   </si>
   <si>
-    <t>Проверка ответа для несуществующего "status" в GET /pet/findByStatus</t>
+    <t>Ответ для несуществующего "status" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан несущетсвующий "status"="Test"</t>
@@ -609,7 +609,7 @@
     <t>API_TC_10</t>
   </si>
   <si>
-    <t>Проверка ответа для валидного "status", но с использованием пробелов в значении "status"=" sold " в GET /pet/findByStatus</t>
+    <t>Ответ для валидного "status", но с использованием пробелов в значении "status"=" sold " в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан валидный "status" с пробелами "status"= " sold "</t>
@@ -642,7 +642,7 @@
     <t>API_TC_11</t>
   </si>
   <si>
-    <t>Проверка ответа при пустом "status"="" в GET /pet/findByStatus</t>
+    <t>Ответ при пустом "status"="" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан "status"= ""</t>
@@ -675,7 +675,7 @@
     <t>API_TC_12</t>
   </si>
   <si>
-    <t>Проверка ответа при невалидном "status"=1 в GET /pet/findByStatus</t>
+    <t>Ответ при невалидном "status"=1 в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан "status"= 1</t>
@@ -708,7 +708,7 @@
     <t>API_TC_13</t>
   </si>
   <si>
-    <t>Проверка ответа при запросе без параметра "status" GET /pet/findByStatus</t>
+    <t>Ответ при запросе без параметра "status" GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, без параметра "status"</t>
@@ -741,7 +741,7 @@
     <t>API_TC_14</t>
   </si>
   <si>
-    <t>Проверка ответа для эндпоинта GET /pet/findByStatus, изменив метод запроса</t>
+    <t>Ответ для эндпоинта GET /pet/findByStatus, изменив метод запроса</t>
   </si>
   <si>
     <t>Ответ от эндопинта GET /pet/findByStatus, изменив метод GET на PUT</t>
@@ -776,7 +776,7 @@
     <t>API_TC_15</t>
   </si>
   <si>
-    <t>Проверка корректного ответа для валидного "petId", c добавлением параметров "additionalMetadata" и "file" в POST /pet/{petId}/uploadImage</t>
+    <t>Корректный ответ для валидного "petId", c добавлением параметров "additionalMetadata" и "file" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан существующий "petId"=3 и параметры "additionalMetadata"="Test" и file="cat.png"</t>
@@ -860,7 +860,7 @@
     <t>API_TC_16</t>
   </si>
   <si>
-    <t>Проверка корректного ответа для валидного "petId", c добавлением параметра "additionalMetadata" в POST /pet/{petId}/uploadImage</t>
+    <t>Корректный ответ для валидного "petId", c добавлением параметра "additionalMetadata" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан существующий "petId"=3 и параметр "additionalMetadata"="New Test"</t>
@@ -947,7 +947,7 @@
     <t>API_TC_17</t>
   </si>
   <si>
-    <t>Проверка корректного ответа для валидного "petId", c добавлением параметра "file" в POST /pet/{petId}/uploadImage</t>
+    <t>Корректный ответ для валидного "petId", c добавлением параметра "file" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан существующий "petId"=3 и параметр "file"="dog.png"</t>
@@ -1022,7 +1022,7 @@
     <t>API_TC_18</t>
   </si>
   <si>
-    <t>Проверка ответа при отсутствии параметра "file" в POST /pet/{petId}/uploadImage</t>
+    <t>Ответ при отсутствии параметра "file" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан только валидный "petId"=7 без параметра "file"</t>
@@ -1176,7 +1176,7 @@
     <t>Загрузка файла неподдерживаемого формата в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
-    <t>Поведение системы при передаче в "file" файл неподдерживаемый формат</t>
+    <t>Поведение системы при передаче в параметр "file", файл неподдерживаемого формата, "script.exe"</t>
   </si>
   <si>
     <t>Система не поддерживает файлы формата отличные от изображений</t>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="296">
   <si>
     <t>Test case id</t>
   </si>
@@ -58,7 +58,7 @@
     <t>API_TC_01</t>
   </si>
   <si>
-    <t>Корректный ответ для валидного "petId" в GET /pet/{petId}</t>
+    <t>Валидный "petId" в GET /pet/{petId}</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта GET /pet/{petId}, если передан существующий "petId"</t>
@@ -122,10 +122,10 @@
     <t>API_TC_02</t>
   </si>
   <si>
-    <t>Ответ для несуществующего "petId" в GET /pet/{petId}</t>
-  </si>
-  <si>
-    <t>Ответ от эндпоинта GET /pet/{petId}, если передан несуществующий "petId"</t>
+    <t>Запрос с несуществующим "petId" в GET /pet/{petId}</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /pet/{petId}, если передан несуществующий "petId"=9999</t>
   </si>
   <si>
     <t>В системе отсутствует питомец с "petId"=9999</t>
@@ -195,7 +195,7 @@
     <t>API_TC_03</t>
   </si>
   <si>
-    <t>Ответ для невалидного "petId" в GET /pet/{petId}</t>
+    <t>Запрос с невалидным "petId" в GET /pet/{petId}</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/{petId}, если передан невалидный "petId"</t>
@@ -272,7 +272,7 @@
     <t>API_TC_04</t>
   </si>
   <si>
-    <t>Ответ при запросе без параметра "petId" в GET /pet/{petId}</t>
+    <t>Запрос без параметра "petId" в GET /pet/{petId}</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/{petId}, если "petId" не передан</t>
@@ -322,7 +322,7 @@
     <t>API_TC_05</t>
   </si>
   <si>
-    <t>Ответ для эндпоинта GET /pet/{petId}, изменив метод запроса</t>
+    <t>Изменить метод запроса для эндпоинта GET /pet/{petId}</t>
   </si>
   <si>
     <t>Ответ от эндопинта GET /pet/{petId}, изменив метод GET на PUT</t>
@@ -363,7 +363,7 @@
     <t>API_TC_06</t>
   </si>
   <si>
-    <t>Корректный ответ для валидного "status"="available" в GET /pet/findByStatus</t>
+    <t>Валидный "status"="available" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта GET /pet/findByStatus, если передан существующий "status"="available"</t>
@@ -428,10 +428,10 @@
     <t>API_TC_07</t>
   </si>
   <si>
-    <t>Корректный ответ для валидного "status"="pending" в GET /pet/findByStatus</t>
-  </si>
-  <si>
-    <t>Корректный ответа от эндпоинта GET /pet/findByStatus, если передан существующий "status"="pending"</t>
+    <t>Валидный "status"="pending" в GET /pet/findByStatus</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта GET /pet/findByStatus, если передан существующий "status"="pending"</t>
   </si>
   <si>
     <t>Система содержит питомцев с "status"="pending"</t>
@@ -493,7 +493,7 @@
     <t>API_TC_08</t>
   </si>
   <si>
-    <t>Корректный ответ для валидного "status"="sold" в GET /pet/findByStatus</t>
+    <t>Валидный "status"="sold" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта GET /pet/findByStatus, если передан существующий "status"="sold"</t>
@@ -558,7 +558,7 @@
     <t>API_TC_09</t>
   </si>
   <si>
-    <t>Ответ для несуществующего "status" в GET /pet/findByStatus</t>
+    <t>Несуществующий "status" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан несущетсвующий "status"="Test"</t>
@@ -609,7 +609,7 @@
     <t>API_TC_10</t>
   </si>
   <si>
-    <t>Ответ для валидного "status", но с использованием пробелов в значении "status"=" sold " в GET /pet/findByStatus</t>
+    <t>Валидный "status"=" sold ", но с пробелами в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан валидный "status" с пробелами "status"= " sold "</t>
@@ -642,7 +642,7 @@
     <t>API_TC_11</t>
   </si>
   <si>
-    <t>Ответ при пустом "status"="" в GET /pet/findByStatus</t>
+    <t>Пустой "status" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан "status"= ""</t>
@@ -675,7 +675,7 @@
     <t>API_TC_12</t>
   </si>
   <si>
-    <t>Ответ при невалидном "status"=1 в GET /pet/findByStatus</t>
+    <t>Невалидный "status" в GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, если передан "status"= 1</t>
@@ -708,7 +708,7 @@
     <t>API_TC_13</t>
   </si>
   <si>
-    <t>Ответ при запросе без параметра "status" GET /pet/findByStatus</t>
+    <t>Запрос без "status" GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндпоинта GET /pet/findByStatus, без параметра "status"</t>
@@ -741,7 +741,7 @@
     <t>API_TC_14</t>
   </si>
   <si>
-    <t>Ответ для эндпоинта GET /pet/findByStatus, изменив метод запроса</t>
+    <t>Изменить метод запроса для GET /pet/findByStatus</t>
   </si>
   <si>
     <t>Ответ от эндопинта GET /pet/findByStatus, изменив метод GET на PUT</t>
@@ -776,7 +776,7 @@
     <t>API_TC_15</t>
   </si>
   <si>
-    <t>Корректный ответ для валидного "petId", c добавлением параметров "additionalMetadata" и "file" в POST /pet/{petId}/uploadImage</t>
+    <t>Валидный "petId", c параметрами "additionalMetadata" и "file" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан существующий "petId"=3 и параметры "additionalMetadata"="Test" и file="cat.png"</t>
@@ -860,7 +860,7 @@
     <t>API_TC_16</t>
   </si>
   <si>
-    <t>Корректный ответ для валидного "petId", c добавлением параметра "additionalMetadata" в POST /pet/{petId}/uploadImage</t>
+    <t>Валидный "petId", c добавлением параметра "additionalMetadata" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан существующий "petId"=3 и параметр "additionalMetadata"="New Test"</t>
@@ -947,7 +947,7 @@
     <t>API_TC_17</t>
   </si>
   <si>
-    <t>Корректный ответ для валидного "petId", c добавлением параметра "file" в POST /pet/{petId}/uploadImage</t>
+    <t>Валидный "petId", c добавлением параметра "file" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Корректный ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан существующий "petId"=3 и параметр "file"="dog.png"</t>
@@ -1022,7 +1022,7 @@
     <t>API_TC_18</t>
   </si>
   <si>
-    <t>Ответ при отсутствии параметра "file" в POST /pet/{petId}/uploadImage</t>
+    <t>Валидный "petId" без "file" в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Ответ от эндпоинта POST /pet/{petId}/uploadImage, если передан только валидный "petId"=7 без параметра "file"</t>
@@ -1069,7 +1069,7 @@
     <t>API_TC_19</t>
   </si>
   <si>
-    <t>Обработка отрицательного значения "petId" в POST /pet/{petId}/uploadImage с добавлением параметров "additionalMetadata" и "file"</t>
+    <t>Отрицательное значение "petId" в POST /pet/{petId}/uploadImage с добавлением параметров "additionalMetadata" и "file"</t>
   </si>
   <si>
     <t xml:space="preserve">        Поведение системы при передаче отрицательного значения "petId"=-1 с корректными параметрами "additionalMetadata"="HI" и "file"="cat.png"</t>
@@ -1127,7 +1127,7 @@
     <t>API_TC_20</t>
   </si>
   <si>
-    <t>Обработка отрицательного значения "petId" в POST /pet/{petId}/uploadImage, без добавления дополнительных параметров</t>
+    <t>Отрицательное значение "petId" в POST /pet/{petId}/uploadImage, без дополнительных параметров</t>
   </si>
   <si>
     <t xml:space="preserve">        Поведение системы при передаче отрицательного значения "petId"=-10 без дополнительных параметров</t>
@@ -1173,7 +1173,7 @@
     <t>API_TC_21</t>
   </si>
   <si>
-    <t>Загрузка файла неподдерживаемого формата в POST /pet/{petId}/uploadImage</t>
+    <t>Файл неподдерживаемого формата в POST /pet/{petId}/uploadImage</t>
   </si>
   <si>
     <t>Поведение системы при передаче в параметр "file", файл неподдерживаемого формата, "script.exe"</t>
@@ -1231,7 +1231,7 @@
     <t>API_TC_22</t>
   </si>
   <si>
-    <t>Проверка ответа для эндпоинта POST /pet/{petId}/uploadImage, изменив метод запроса</t>
+    <t>Изменить метод запроса для эндпоинта POST /pet/{petId}/uploadImage,</t>
   </si>
   <si>
     <t>Ответ от эндопинта POST /pet/{petId}/uploadImage, изменив метод POST на GET</t>
@@ -1264,28 +1264,1138 @@
     </r>
   </si>
   <si>
+    <t>POST /pet</t>
+  </si>
+  <si>
     <t>API_TC_23</t>
   </si>
   <si>
+    <t>Создание нового питомца с валидным телом запроса POST /pet</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта POST /pet, если передан валидный JSON в теле запроса.</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=11</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса:
+   json
+   {
+     "id": 11,
+     "category": {
+       "id": 1,
+       "name": "dogo"
+     },
+     "name": "Rexx",
+     "photoUrls": [
+       "string"
+     ],
+     "tags": [
+       {
+         "id": 1,
+         "name": "Dogs"
+       }
+     ],
+     "status": "available"
+   }
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что тело ответа идентично телу запроса
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /pet/{petId=11}
+6. Убедиться что питомец с id=11 присутствует в системе и его данные идентичны телу запроса</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+   {
+     "id": 11,
+     "category": {
+       "id": 1,
+       "name": "dogo"
+     },
+     "name": "Rexx",
+     "photoUrls": [
+       "string"
+     ],
+     "tags": [
+       {
+         "id": 1,
+         "name": "Dogs"
+       }
+     ],
+     "status": "available"
+   }</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type имеет значение application/json
+4.При запросе GET /pet/11 данные питомца совпадают с данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый питомец находится в системе при выполнении запроса GET /pet/11</t>
+  </si>
+  <si>
     <t>API_TC_24</t>
   </si>
   <si>
+    <t>Создание нового питомца с валидным телом запроса POST /pet, c несколькими "photoUrls"</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта POST /pet, если передан валидный JSON содержащий несколько "photoUrls", в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=14</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса:
+   json
+   {
+     "id": 14,
+     "category": {
+       "id": 1,
+       "name": "dogo"
+     },
+     "name": "Kain",
+     "photoUrls": [
+       "VALID URL-1",
+"VALID URL-2",
+     ],
+     "tags": [
+       {
+         "id": 1,
+         "name": "Dogs"
+       }
+     ],
+     "status": "available"
+   }
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что тело запроса идентично телу ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json
+5. Выполнить запрос GET /pet/{petId=14}
+6. Убедиться что питомец id=14 присутствует в системе и его данные идентичны телу запроса</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+   {
+     "id": 14,
+     "category": {
+       "id": 1,
+       "name": "dogo"
+     },
+     "name": "Kain",
+     "photoUrls": [
+       "VALID URL-1",
+"VALID URL-2",
+     ],
+     "tags": [
+       {
+         "id": 1,
+         "name": "Dogs"
+       }
+     ],
+     "status": "available"
+   }</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type имеет значение application/json
+4.При запросе GET /pet/14 данные питомца совпадают с данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый питомец находится в системе при выполнении запроса GET /pet/14</t>
+  </si>
+  <si>
     <t>API_TC_25</t>
   </si>
   <si>
+    <t>Создание нового питомца с валидным телом запроса POST /pet, c несколькими "tags"</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта POST /pet, если передан валидный JSON содержащий несколько "tags", в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=17</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса:
+   json
+{
+        "id": 17,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что тело запроса идентично телу ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json
+5. Выполнить запрос GET /pet/{petId=17}
+6. Убедиться что питомец id=17 присутствует в системе и его данные идентичны телу запроса</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": 17,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type имеет значение application/json
+4.При запросе GET /pet/17 данные питомца совпадают с данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый питомец находится в системе при выполнении запроса GET /pet/17</t>
+  </si>
+  <si>
     <t>API_TC_26</t>
   </si>
   <si>
+    <t>Cоздание нового питомца с отсутствующим полем "id" в теле запроса POST /pet</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON с отсутствующим полем "id", в теле запроса</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором отсутствует поле "id":
+   json
+{
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "id is required")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Поле "id" автоматически присвоено со значением 9223372036854739242
+3. Тело ответа идентично телу запроса
+4. Заголовок Content-Type соответствует ожидаемому результат</t>
+  </si>
+  <si>
+    <t>Следует подтвердить у разработчиков, присваивает ли система значение полю id автоматически, в случае отсутствия поля в JSON, возможно это фича</t>
+  </si>
+  <si>
     <t>API_TC_27</t>
   </si>
   <si>
+    <t>Cоздание нового питомца с отсутствующим полем "category" в теле запроса POST /pet</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON с отсутствующим полем "category", в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=21</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором отсутствует поле "category":
+   json
+{
+"id"=21,
+        "name": "New Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "category is required")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+"id"=21,
+        "name": "New Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Поле "category" отсутствует в теле ответа
+3. Тело ответа идентично телу запроса
+4. Заголовок Content-Type соответствует ожидаемому результат
+5. Новый питомец находится в система при выполнении GET /pet/21, но отсутствует поле "category"</t>
+  </si>
+  <si>
+    <t>Возможно поле "category" является необязательным полем, нужно уточнить список обязательных полей для JSON</t>
+  </si>
+  <si>
     <t>API_TC_28</t>
   </si>
   <si>
+    <t>Cоздание нового питомца с отсутствующим полем "name" в теле запроса POST /pet</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON с отсутствующим полем "name", в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=22</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором отсутствует поле "name":
+   json
+   {
+     "id": 22,
+     "category": {
+       "id": 1,
+       "name": "dogo"
+     },
+     "photoUrls": [
+       "string"
+     ],
+     "tags": [
+       {
+         "id": 1,
+         "name": "Dogs"
+       }
+     ],
+     "status": "available"
+   }
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "name is required")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+ {
+     "id": 22,
+     "category": {
+       "id": 1,
+       "name": "dogo"
+     },
+     "photoUrls": [
+       "string"
+     ],
+     "tags": [
+       {
+         "id": 1,
+         "name": "Dogs"
+       }
+     ],
+     "status": "available"
+   }</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Поле "name" отсутствует в теле ответа
+3. Тело ответа идентично телу запроса
+4. Заголовок Content-Type соответствует ожидаемому результат
+5. Новый питомец находится в система при выполнении GET /pet/22, но отсутствует поле "name"</t>
+  </si>
+  <si>
     <t>API_TC_29</t>
   </si>
   <si>
+    <t>Cоздание нового питомца с отсутствующим полем "photoUrls" в теле запроса POST /pet</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON с отсутствующим полем "photoUrls", в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=23</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором отсутствует поле "name":
+   json
+{
+        "id": 23,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "photoUrls is required")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": 23,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Поле "photoUrls" отсутствует в теле ответа
+3. Тело ответа идентично телу запроса
+4. Заголовок Content-Type соответствует ожидаемому результат
+5. Новый питомец находится в система при выполнении GET /pet/23, но отсутствует поле "photoUrls"</t>
+  </si>
+  <si>
     <t>API_TC_30</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца с отсутствующим полем "tags" в теле запроса POST /pet</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON с отсутствующим полем "tags", в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=24</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором отсутствует поле "name":
+   json
+{
+        "id": 24,
+        "category": {
+                "id": 1,
+                "name": "dog"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "tags is required")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+ json
+{
+        "id": 24,
+        "category": {
+                "id": 1,
+                "name": "dog"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Поле "tags" отсутствует в теле ответа
+3. Тело ответа идентично телу запроса
+4. Заголовок Content-Type соответствует ожидаемому результат
+5. Новый питомец находится в система при выполнении GET /pet/24, но отсутствует поле "tags"</t>
+  </si>
+  <si>
+    <t>API_TC_31</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца с отсутствующим полем "status" в теле запроса POST /pet</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON с отсутствующим полем "status", в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует питомец с "id"=25</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором отсутствует поле "status":
+   json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "status is required")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Поле "status" отсутствует в теле ответа
+3. Тело ответа идентично телу запроса
+4. Заголовок Content-Type соответствует ожидаемому результат
+5. Новый питомец находится в система при выполнении GET /pet/25, но отсутствует поле "status"</t>
+  </si>
+  <si>
+    <t>API_TC_32</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "id" передать строку</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "id" строка</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором id строка:
+   json
+{
+        "id": "Hello",
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": "Hello",
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "500 Internal server Error"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "500 Internal Server Error"
+2. В теле ответа присутствует сообщение "something bad happened"
+3. Заголовок Content-Type соответствует ожидаемому результат</t>
+  </si>
+  <si>
+    <t>API_TC_33</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "category[id]" передать строку</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "category[id]" строка</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором category[id] строка:
+   json
+{
+        "id": 25,
+        "category": {
+                "id": "Hello",
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": "Hello",
+        "category": {
+                "id": "1",
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>API_TC_34</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "name" число</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "name" число</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором "name" число:
+   json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": 11111,
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": 11111,
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Поле "name" присутствует в теле ответа, с типом строка
+3. Тело ответа идентично телу запроса
+4. Заголовок Content-Type соответствует ожидаемому результат
+5. Новый питомец находится в система при выполнении GET /pet/25, name присутствует и равно "11111"</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>API_TC_35</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "photoUrls" объект</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "photoUrls" объект</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором "photoUrls" объект:
+   json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": Rexxx,
+        "photoUrls": [
+                {},
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": Rexxx,
+        "photoUrls": [
+                {},
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>API_TC_36</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "tags" строка</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "tags" строка</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором "tags" строка:
+   json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": Rexxx,
+        "photoUrls": [
+                "string",
+        ],
+        "tags": [
+"Hello"
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": Rexxx,
+        "photoUrls": [
+                "string",
+        ],
+        "tags": [
+"Hello"
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>API_TC_37</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "tags[id]" строка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "tags[id]" строка </t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором "tags[id]" строка:
+   json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "NAME"
+        },
+        "name": 0.11,
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": "HERE",
+                        "name": "Dogs"
+                },
+                {
+                        "id": "AND HERE",
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "NAME",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": "HERE",
+                        "name": "Dogs"
+                },
+                {
+                        "id": "AND HERE",
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>API_TC_38</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "status]" число</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "status]" число</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором "status" число:
+   json
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "NAME",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": 3
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+body:
+{
+        "id": 25,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "NAME",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": 3
+}</t>
+  </si>
+  <si>
+    <t>1. Cтатус-код "200 OK"
+2. Поле "status" присутствует в теле ответа, с типом число
+3. Тело ответа идентично телу запроса
+4. Заголовок соотвествует ожидаемому результату
+5. Новый питомец находится в системе при выполнении GET /pet/25 status присутствует и имеет значение 3</t>
+  </si>
+  <si>
+    <t>API_TC_39</t>
+  </si>
+  <si>
+    <t>API_TC_40</t>
+  </si>
+  <si>
+    <t>API_TC_41</t>
+  </si>
+  <si>
+    <t>API_TC_42</t>
+  </si>
+  <si>
+    <t>API_TC_43</t>
+  </si>
+  <si>
+    <t>API_TC_44</t>
+  </si>
+  <si>
+    <t>API_TC_45</t>
+  </si>
+  <si>
+    <t>API_TC_46</t>
   </si>
 </sst>
 </file>
@@ -2589,140 +3699,720 @@
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" ht="78.0" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" ht="418.5" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="B29" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L29" s="10"/>
     </row>
-    <row r="30">
+    <row r="30" ht="435.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L30" s="10"/>
     </row>
-    <row r="31">
+    <row r="31" ht="481.5" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+        <v>196</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L31" s="10"/>
     </row>
-    <row r="32">
+    <row r="32" ht="420.0" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33">
+      <c r="E32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" ht="387.0" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34">
+        <v>212</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" ht="456.0" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" ht="451.5" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+        <v>227</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="L35" s="10"/>
+    </row>
+    <row r="36" ht="302.25" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" ht="444.0" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" ht="491.25" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" ht="477.0" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" ht="503.25" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" ht="477.75" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" ht="425.25" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" ht="522.75" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" ht="459.0" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E35">
+    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E52">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F35">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F52">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="366">
   <si>
     <t>Test case id</t>
   </si>
@@ -2306,10 +2306,10 @@
     <t>API_TC_38</t>
   </si>
   <si>
-    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "status]" число</t>
-  </si>
-  <si>
-    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "status]" число</t>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet, в поле "status" число</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если передан JSON, в котором поле "status" число</t>
   </si>
   <si>
     <t>1. Отправить POST-запрос на эндпоинт /pet с телом запроса в котором "status" число:
@@ -2377,25 +2377,604 @@
     <t>API_TC_39</t>
   </si>
   <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet отсутствует body</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если JSON отсутствует в теле запроса</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet без body
+2. Проверить, что статус-код ответа равен "405 Method not Allowed"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "no data")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet</t>
+  </si>
+  <si>
+    <t>1. Статус-код "405 Method Not Allowed"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Статус-код "405 Method not Allowed"
+2. В теле ответа содержится сообщение сообщение "no data"
+3. Заголовок соответствует ожидаемому результату</t>
+  </si>
+  <si>
     <t>API_TC_40</t>
   </si>
   <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet нарушена структура вложенности JSON</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если у JSON в теле запроса нарушена структура вложенности</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с нарущенной структурой вложенности:
+json
+{
+	"id": 17,
+	"category": {
+		"id": 1,
+		"name": "dogo"
+	},
+	"name": "Pet",
+	"photoUrls": [
+		"srting",
+		"tags": [
+		{
+			"id": 1,
+			"name": "Dogs"
+		},
+		{
+			"id": 2,
+			"name": "Cats"
+		},
+	],
+	"status": "available"
+	],
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+json
+{
+        "id": 17,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting",
+                "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                },
+        ],
+        "status": "available"
+        ],
+}</t>
+  </si>
+  <si>
     <t>API_TC_41</t>
   </si>
   <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet имеется дополнительное поле</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если у JSON в теле запроса имеется дополнительное поле</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet с дополнительным полем "extraField": "NewValue":
+json
+{
+        "id": 17,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available",
+"extraField": "NewValue"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+json
+{
+        "id": 17,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available",
+"extraField": "NewValue"
+}</t>
+  </si>
+  <si>
+    <t>1. Cтатус-код "200 OK"
+2. Дополнительное поле "extraField" отсутствует в теле ответа
+3. Заголовок соотвествует ожидаемому результату
+5. Новый питомец находится в системе при выполнении GET /pet/17, extraField отсутствует</t>
+  </si>
+  <si>
+    <t>Система не реагирует на доплонительные поля в JSON при передаче запроса, уточнить, должна ли реагировать или нет?</t>
+  </si>
+  <si>
     <t>API_TC_42</t>
   </si>
   <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet поле "id" имеет отрицательное значение</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если у JSON поле id имеет отрицательное значение</t>
+  </si>
+  <si>
+    <t>В системе отсутствует питомец с отрицательным id</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet, поле id=-1:
+json
+{
+        "id": -1,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+json
+{
+        "id": -1,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Cтатус-код "200 OK"
+2. В теле ответа, поле id = 9223372036854743158
+3. Заголовок соотвествует ожидаемому результату
+5. Новый питомец находится в системе при выполнении GET /pet/9223372036854743158</t>
+  </si>
+  <si>
+    <t>При передаче отрицательного id, система очевидно создает и присваевает новый id для объекта</t>
+  </si>
+  <si>
     <t>API_TC_43</t>
   </si>
   <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet поле "id" имеет максимально большое значение</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если у JSON поле id имеет макисмально большое значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В системе отсутствует питомец с id=1000000000000000000 </t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet, поле id=1000000000000000000 :
+json
+{
+        "id": 1000000000000000000 ,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+json
+{
+        "id": 1000000000000000000 ,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Cтатус-код "200 OK"
+2. Тело отвтеа соответствует телу запроса
+3. Заголовок соотвествует ожидаемому результату
+5. Новый питомец находится в системе при выполнении GET /pet/1000000000000000000</t>
+  </si>
+  <si>
+    <t>Очевидно, что в системе отсуствует числовое ограничение на id питомца</t>
+  </si>
+  <si>
     <t>API_TC_44</t>
   </si>
   <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet поле "status" имеет отличное от ("sold", "pending", "available") значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответ от эндпоинта POST /pet, если у JSON поле status="TEST STATUS" имеет не дефолтное значение </t>
+  </si>
+  <si>
+    <t>В системе отсутствует питомец c id=20</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet, поле status="TEST STATUS":
+json
+{
+        "id": 20,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "TEST STATUS"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+json
+{
+        "id": 20,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Pet",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "TEST STATUS"
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 OK"
+2. В теле ответа содержится поле "status"="TEST STATUS"
+3. Заголовок соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>Система позволяет принять питомца со статусом отличного от дефолтного набора ("available", "sold", "pending")</t>
+  </si>
+  <si>
     <t>API_TC_45</t>
   </si>
   <si>
+    <t>Cоздание нового питомца, но в теле запроса POST /pet поле "name" имеет незакрытые ковычки</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если у JSON поля "name"  отсутствует закрытие ковычек в значении</t>
+  </si>
+  <si>
+    <t>В системе отсутствует питомец с id=21</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet, поле name="Rex :
+json
+{
+        "id": 21,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Rex,
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "500 Internal Server Error"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+json
+{
+        "id": 21,
+        "category": {
+                "id": 1,
+                "name": "dogo"
+        },
+        "name": "Rex,
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
     <t>API_TC_46</t>
+  </si>
+  <si>
+    <t>Cоздание нового питомца, но при запросе POST /pet данный питомец уже есть в системе</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet, если мы передадим дублирующий JSON</t>
+  </si>
+  <si>
+    <t>В системе уже есть питомец с id=1</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet, id питомца уже есть в системе:
+json
+{
+        "id": 1,
+        "category": {
+                "id": 1,
+                "name": "Rex"
+        },
+        "name": "Rex",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}
+2. Проверить, что статус-код ответа равен "405 Method not Allowed"
+3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "this id is already taken")
+4. Проверить, что заголовок Content-Type имеет значение application/json"</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/addPet
+json
+{
+        "id": 1,
+        "category": {
+                "id": 1,
+                "name": "Rex"
+        },
+        "name": "Rex",
+        "photoUrls": [
+                "srting"
+        ],
+        "tags": [
+                {
+                        "id": 1,
+                        "name": "Dogs"
+                },
+                {
+                        "id": 2,
+                        "name": "Cats"
+                }
+        ],
+        "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 OK"
+2. Тело ответа соответствует телу запроса
+3. Заголовок соответствует ожидаемому результату
+4. При выполнении GET /pet/1 хранится питомец из тела запроса, питомец который хранился до запроса был пересоздан</t>
+  </si>
+  <si>
+    <t>Очевидно, что система пересоздает питомца, если при запросе POST /pet поле id имеет значение уже имеющегося в системе питомца</t>
+  </si>
+  <si>
+    <t>API_TC_47</t>
+  </si>
+  <si>
+    <t>Изменить метод запроса для эндпоинта POST /pet</t>
+  </si>
+  <si>
+    <t>Ответ от эндопинта POST /pet, изменив метод POST на GET</t>
+  </si>
+  <si>
+    <t>1.Отправить GET-запрос на эндпоинт /pet, без параметров
+2. Проверить статус-код ответа
+3. Проверить, что заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "405 Method Not Allowed" статус-код
+2. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_48</t>
+  </si>
+  <si>
+    <t>API_TC_49</t>
+  </si>
+  <si>
+    <t>API_TC_50</t>
+  </si>
+  <si>
+    <t>API_TC_51</t>
+  </si>
+  <si>
+    <t>API_TC_52</t>
+  </si>
+  <si>
+    <t>API_TC_53</t>
+  </si>
+  <si>
+    <t>API_TC_54</t>
+  </si>
+  <si>
+    <t>API_TC_55</t>
+  </si>
+  <si>
+    <t>API_TC_56</t>
+  </si>
+  <si>
+    <t>API_TC_57</t>
+  </si>
+  <si>
+    <t>API_TC_58</t>
+  </si>
+  <si>
+    <t>API_TC_59</t>
+  </si>
+  <si>
+    <t>API_TC_60</t>
+  </si>
+  <si>
+    <t>API_TC_61</t>
+  </si>
+  <si>
+    <t>API_TC_62</t>
+  </si>
+  <si>
+    <t>API_TC_63</t>
   </si>
 </sst>
 </file>
@@ -4279,140 +4858,596 @@
       </c>
       <c r="L44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" ht="276.0" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="D45" s="8"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="E45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L45" s="10"/>
     </row>
-    <row r="46">
+    <row r="46" ht="472.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="8"/>
+        <v>295</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="D46" s="8"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="E46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L46" s="10"/>
     </row>
-    <row r="47">
+    <row r="47" ht="470.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48">
+      <c r="E47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" ht="495.0" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49">
+        <v>307</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" ht="465.0" customHeight="1">
       <c r="A49" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" ht="471.0" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" ht="488.25" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" ht="462.75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" ht="149.25" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="I53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E52">
+    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E69">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F52">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F69">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="487">
   <si>
     <t>Test case id</t>
   </si>
@@ -786,6 +786,7 @@
   </si>
   <si>
     <t>1. Отправить POST-запрос на эндпоинт /pet/{petId}/uploadImage с параметрами "petId"=3, "additionalMetadata"="Test", "file"="cat.png"
+Формат запроса multipart/form-data
 2. Проверить статус-код ответа
 3. Проверить, что тело ответа содержит сообщение successful operation
 4. Проверить, что заголовок Content-Type имеет значение application/json
@@ -2929,52 +2930,555 @@
 2. Заголовок Content-Type соответствует ожидаемому результату</t>
   </si>
   <si>
+    <t>POST /pet/{petId}</t>
+  </si>
+  <si>
     <t>API_TC_48</t>
   </si>
   <si>
+    <t>Обновление "name" и"status" питомца с валидным "petId" в POST /pet/{petId}</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидных "petId", "name", "status"</t>
+  </si>
+  <si>
+    <t>Убедиться, что питомец с petId=10 существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=10 "name"="TestPet", "status"="available"
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Выполнить запрос GET /pet/{petId=10}
+5. Убедиться что у питомца с petId=10 поля "name" и "status" хранят значения из запроса</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=10
+"name"="TestPet"
+"status"="available"</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 OK"
+2. Заголовок Content-Type имеет значение application/json
+3. При запросе GET /pet/10 данные питомца обновлены данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "415 Unsupported Media Type"
+2. Заголовок Content-Type имеет значение application/xml
+3. При запросе /pet/10 данные питомца не изменились</t>
+  </si>
+  <si>
     <t>API_TC_49</t>
   </si>
   <si>
+    <t>Обновление "name" питомца с валидным "petId" в POST /pet/{petId}</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидных "petId", "name"</t>
+  </si>
+  <si>
+    <t>Убедиться, что питомец с petId=4 существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=4 "name"="TestPet"
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Выполнить запрос GET /pet/{petId=4}
+5. Убедиться что у питомца с "petId"=4 поле "name"  хранит значение из запроса</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=4
+"name"="TestPet"</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 OK"
+2. Заголовок Content-Type имеет значение application/json
+3. При запросе GET /pet/4 данные питомца обновлены данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "415 Unsupported Media Type"
+2. Заголовок Content-Type имеет значение application/xml
+3. При запросе /pet/4 данные питомца не изменились</t>
+  </si>
+  <si>
     <t>API_TC_50</t>
   </si>
   <si>
+    <t>Обновление "status" питомца с валидным "petId" в POST /pet/{petId}</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидных "petId", "status"</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=4 "status"="available"
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Выполнить запрос GET /pet/{petId=4}
+5. Убедиться что у питомца с "petId"=4 поле "name"  хранит значение из запроса</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=4
+"status"="available"</t>
+  </si>
+  <si>
     <t>API_TC_51</t>
   </si>
   <si>
+    <t>Передача валидного "petId" в POST /pet/{petId} без дополнительных параметров</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидного "petId", без дополнительных параметров</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=4
+2.Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Выполнить запрос GET /pet/{petId=4}
+5. Убедиться что у питомца с "petId"=4 не изменились поля "name" и "status"</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=4</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 OK"
+2. Заголовок Content-Type имеет значение application/json
+3. При запросе GET /pet/4 данные питомца остались неизменны</t>
+  </si>
+  <si>
     <t>API_TC_52</t>
   </si>
   <si>
+    <t>Передача несуществующего "petId" в POST /pet/{petId} c валидными параметрами "name" и "status"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче несуществующего "petId", с дополнительными параметрами "name" и "status"</t>
+  </si>
+  <si>
+    <t>Убедиться, что питомец с petId=7 не существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7, "name"=Test, "status"="available"
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "500 Internal server error"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Проверить, что в теле ответа содержится сообщение об ошибке (например, "petId doesn't exist")</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=7
+"name"="Test"
+"status"="available"</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "500 Internal Server Error"
+2. Заголовок ответа Content_Type имеет значение application/json
+3. В теле ответа содержится сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "415 Unsupported Media Type"
+2. Заголовок Content-Type имеет значение application/xml
+3. Сообщение об ошибке отсутствует в теле запроса</t>
+  </si>
+  <si>
+    <t>Очевидно что система не принимает формат запроса multupart/form-data, однако она принимает параметры, если передавать их в качестве параметров URL, что может быть небезопасным?</t>
+  </si>
+  <si>
     <t>API_TC_53</t>
   </si>
   <si>
+    <t>Передача невалидного"petId" в POST /pet/{petId} c валидными параметрами "name" и "status"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче невалидного "petId", с дополнительными параметрами "name" и "status"</t>
+  </si>
+  <si>
+    <t>В системе не может быть petId="TEST", так как petId не может быть строковым типом</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"="TEST", "name"=PET", "status"="sold"
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "500 Internal server error"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Проверить, что в теле ответа содержится сообщение об ошибке (например, "petId incorrect")</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"="TEST"
+"name"="PET"
+"status"="sold"</t>
+  </si>
+  <si>
     <t>API_TC_54</t>
   </si>
   <si>
+    <t>Передача валидного "petId" в POST /pet/{petId} c невалидными параметрами "name" и "status"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидного "petId", с невалидными "name" и "status"</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе существвует petId=7</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7, "name"=4, "status"=12
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "500 Internal server error"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Проверить, что в теле ответа содержится сообщение об ошибке (например, "name incorrect" or "status incorrect" )
+5. Проверить что при запросе GET /pet/7 данные питомца остались неизменны</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=7
+"name"=4
+"status"=12</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "500 Internal Server Error"
+2. Заголовок ответа Content_Type имеет значение application/json
+3. В теле ответа содержится сообщение об ошибке
+4. При запросе GET /pet/7 данные питомца остались неизменны</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "415 Unsupported Media Type"
+2. Заголовок Content-Type имеет значение application/xml
+3. Сообщение об ошибке отсутствует в теле запроса
+4. Данные питомца не изменились</t>
+  </si>
+  <si>
     <t>API_TC_55</t>
   </si>
   <si>
+    <t>Передача валидного "petId" в POST /pet/{petId} c максимально длинным параметром "name"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидного "petId", с максимально длинным параметром "name"=1000 символов</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7, "name"=значение в 1000 символов
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "500 Internal server error"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Проверить, что в теле ответа содержится сообщение об ошибке (например, "name is too long")
+5. Проверить что при запросе GET /pet/7 данные питомца остались неизменны</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=7
+"name"=значение в 1000 символов</t>
+  </si>
+  <si>
     <t>API_TC_56</t>
   </si>
   <si>
+    <t>Передача валидного "petId" в POST /pet/{petId} c пустым параметром "name"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидного "petId", с пустым параметром "name"=""</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7, "name"=''"
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "500 Internal server error"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Проверить, что в теле ответа содержится сообщение об ошибке (например, "name is empty")
+5. Проверить что при запросе GET /pet/7 данные питомца остались неизменны</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=7
+"name"=""</t>
+  </si>
+  <si>
     <t>API_TC_57</t>
   </si>
   <si>
+    <t>Передача валидного "petId" в POST /pet/{petId} c валидным параметром "status", содержащий пробелы</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId} при передаче валидного "petId" и параметром  status=" sold " с пробелами</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7, "status"='' sold "
+Формат запроса multipart/form-data
+2.Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Проверить что при запросе GET /pet/7  поле "status" хранит значение из запроса</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=7
+"status"=" sold "</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 OK"
+2. Заголовок ответа Content_Type имеет значение application/json
+3. При запросе GET /pet/7 "status" хранит значение из запроса</t>
+  </si>
+  <si>
     <t>API_TC_58</t>
   </si>
   <si>
+    <t>Изменить метод запроса для эндпоинта POST /pet/{petId}</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /pet/{petId}, изменив метод POST на PATCH</t>
+  </si>
+  <si>
+    <t>Метод PATCH не должен поддерживаться на эндпоинте</t>
+  </si>
+  <si>
+    <t>1.Отправить PATCH-запрос на эндпоинт /pet/{petId}, c параметрами petId=7, name="Pet", "status"="pending"
+2. Проверить, что статус-код ответа равен "405 Method Not Allowed"
+3. Проверить, что заголовок Content-Type имеет значение application/xml
+4. Проверить, что при запросе GET /pet/7 данные питомца не изменились</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
+"petId"=7
+"name"="Pet"
+"status"="sold"</t>
+  </si>
+  <si>
+    <t>1. Статус-код "405 Method Not Allowed"
+2. Заголовок Content-Type имеет значение application/xml
+3. При запросе GET /pet/7 данные питомца не изменились</t>
+  </si>
+  <si>
+    <t>1. Статус код "405 Method not Allowed"
+2. Заголовок Content-Type имеет значение application/xml
+3. При запросе GET /pet/7 данные питомца не изменились</t>
+  </si>
+  <si>
+    <t>DELETE /pet/{petId}</t>
+  </si>
+  <si>
     <t>API_TC_59</t>
   </si>
   <si>
+    <t>Удаление питомца с валидными "api_key" и "petId"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче валидных "petId" и "api_key"</t>
+  </si>
+  <si>
+    <t>Убедиться, что питомец с petId=7 существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7 и api_key="valid_api_key" в path запроса
+2.Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Выполнить запрос GET /pet/{petId=7}
+5. Убедиться что у питомца с petId=7 не существует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/deletePet
+petId=7
+api_key="valid_api_key"</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 OK"
+2. Заголовок ответа Content-Type имеет значение application/json
+3. При запросе GET /pet/7 message для питомца petId=7 - "Pet not found"</t>
+  </si>
+  <si>
     <t>API_TC_60</t>
   </si>
   <si>
+    <t>Удаление питомца с валидными "petId", без api_key</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче валидного "petId"</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметром "petId"=10
+2.Проверить, что статус-код ответа равен "200 OK"
+3. Проверить, что заголовок Content-Type имеет значение application/json
+4. Выполнить запрос GET /pet/{petId=10}
+5. Убедиться что у питомца с petId=10 не существует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/deletePet
+petId=10</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 OK"
+2. Заголовок ответа Content-Type имеет значение application/json
+3. При запросе GET /pet/10 message для питомца petId=10 - "Pet not found"</t>
+  </si>
+  <si>
     <t>API_TC_61</t>
   </si>
   <si>
+    <t>Удаление питомца при передаче несуществующего "petId" и валидного "api_key"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче несуществующего "petId" и валидного "api_key"</t>
+  </si>
+  <si>
+    <t>Убедиться, что питомец с petId=10 не существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметами "petId"=10 и "api_key"="valid_api_key"
+2.Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить, что body пустое
+4. Выполнить запрос GET /pet/{petId=10}
+5. Убедиться что у питомца с petId=10 не существует в системе</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "404 Not Found"
+2. Body отсутствует
+3. При запросе GET pet/10 питомца не существует в системе</t>
+  </si>
+  <si>
     <t>API_TC_62</t>
   </si>
   <si>
+    <t>Удаление питомца при передаче валидного "petId" и неввалидного "api_key"</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче валидного "petId" и невалидного "api_key"</t>
+  </si>
+  <si>
+    <t>Убедиться, что питомец с petId=12 не существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметами "petId"=12 и "api_key"="Invalid API"
+2.Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа есть сообщение (Invalid api_key supplied)
+4. Выполнить запрос GET /pet/{petId=12}
+5. Убедиться что у питомца с petId=12 не существует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/deletePet
+petId=12
+api_key="Invalid API"</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "400 Bad Request"
+2. В теле ответа присутствует сообщение 
+3. При запросе GET pet/12 питомца не существует в системе</t>
+  </si>
+  <si>
     <t>API_TC_63</t>
+  </si>
+  <si>
+    <t>Удаление питомца при передаче "petId" невалидного типа</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче невалидного "petId"  в качестве строки</t>
+  </si>
+  <si>
+    <t>В системе не можеть petId "PETID", так как petId не может быть строковым типом</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметами "petId"="PETID"
+2.Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить, что в теле ответа есть сообщение (Invalid petId supplied)</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/deletePet
+petId="PETID"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Статус-код ответа "404 Not Found"
+2. В теле ответа присутствует сообщение </t>
+  </si>
+  <si>
+    <t>API_TC_64</t>
+  </si>
+  <si>
+    <t>Удаление питомца при передаче "petId" равное нулю</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче "petId"=0</t>
+  </si>
+  <si>
+    <t>Убедиться, что petId=0 не существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметами "petId"=0
+2.Проверить, что статус-код ответа равен "404 Not Found"</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/deletePet
+petId=0</t>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "404 Not Found"</t>
+  </si>
+  <si>
+    <t>API_TC_65</t>
+  </si>
+  <si>
+    <t>Удаление питомца при передаче "petId" отрицательное значение</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче "petId"=-1</t>
+  </si>
+  <si>
+    <t>Убедиться, что petId=-1 не существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметами "petId"=-1
+2.Проверить, что статус-код ответа равен "404 Not Found"</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/deletePet
+petId=-1</t>
+  </si>
+  <si>
+    <t>API_TC_66</t>
+  </si>
+  <si>
+    <t>Повторное удаление питомца</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /pet/{petId} если мы уже удаляли питомца из системы</t>
+  </si>
+  <si>
+    <t>Выполнить API_TC_59</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметами "petId"=7
+2.Проверить, что статус-код ответа равен "404 Not Found"</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/#/pet/deletePet
+petId=7</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>API_TC_67</t>
+  </si>
+  <si>
+    <t>API_TC_68</t>
+  </si>
+  <si>
+    <t>API_TC_69</t>
+  </si>
+  <si>
+    <t>API_TC_70</t>
+  </si>
+  <si>
+    <t>API_TC_71</t>
+  </si>
+  <si>
+    <t>API_TC_72</t>
+  </si>
+  <si>
+    <t>API_TC_73</t>
+  </si>
+  <si>
+    <t>API_TC_74</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3596,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3137,6 +3641,15 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3986,7 +4499,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" ht="156.0" customHeight="1">
+    <row r="20" ht="186.0" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>118</v>
       </c>
@@ -5186,268 +5699,874 @@
       </c>
       <c r="L53" s="10"/>
     </row>
-    <row r="54">
-      <c r="A54" s="8" t="s">
+    <row r="54" ht="63.0" customHeight="1">
+      <c r="A54" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55">
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" ht="218.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+      <c r="B55" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="L55" s="10"/>
     </row>
-    <row r="56">
+    <row r="56" ht="184.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
+        <v>359</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="L56" s="10"/>
     </row>
-    <row r="57">
+    <row r="57" ht="231.75" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
+        <v>367</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="L57" s="10"/>
     </row>
-    <row r="58">
+    <row r="58" ht="182.25" customHeight="1">
       <c r="A58" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" ht="183.0" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" ht="175.5" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" ht="192.0" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" ht="211.5" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" ht="219.0" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L63" s="10"/>
+    </row>
+    <row r="64" ht="231.75" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65" ht="170.25" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="10"/>
+    </row>
+    <row r="66" ht="75.0" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" ht="150.75" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="10"/>
+    </row>
+    <row r="68" ht="171.75" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="E68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L68" s="10"/>
     </row>
-    <row r="69">
+    <row r="69" ht="211.5" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+        <v>439</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L69" s="10"/>
+    </row>
+    <row r="70" ht="170.25" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="10"/>
+    </row>
+    <row r="71" ht="169.5" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="10"/>
+    </row>
+    <row r="72" ht="147.75" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="10"/>
+    </row>
+    <row r="73" ht="100.5" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="10"/>
+    </row>
+    <row r="74" ht="90.75" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" s="10"/>
+    </row>
+    <row r="75" ht="90.75" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" ht="24.75" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E69">
+    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E53 E55:E65 E67:E74 E77:E83">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F69">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F53 F55:F65 F67:F74 F77:F83">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="583">
   <si>
     <t>Test case id</t>
   </si>
@@ -2922,7 +2922,7 @@
   </si>
   <si>
     <t>1.Отправить GET-запрос на эндпоинт /pet, без параметров
-2. Проверить статус-код ответа
+2. Проверить, что статус-код ответа равен "405 Method not Allowed"
 3. Проверить, что заголовок Content-Type имеет значение application/xml</t>
   </si>
   <si>
@@ -3375,7 +3375,7 @@
     <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче невалидного "petId"  в качестве строки</t>
   </si>
   <si>
-    <t>В системе не можеть petId "PETID", так как petId не может быть строковым типом</t>
+    <t>В системе не можеть petId="PETID", так как petId не может быть строковым типом</t>
   </si>
   <si>
     <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметами "petId"="PETID"
@@ -3457,35 +3457,696 @@
     <t>Store</t>
   </si>
   <si>
+    <t>GET /store/inventory</t>
+  </si>
+  <si>
     <t>API_TC_67</t>
   </si>
   <si>
+    <t>Получить информацию о доступности питомцев в питомнике GET /store/inventory</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта GET /store/inventory</t>
+  </si>
+  <si>
+    <t>1. Отправить GET-запрос на эндпоинт /store/inventory
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и данные ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/inventory</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 Ok"
+2.Тело ответа содержит JSON с корретной информацией о доступности питомцев в питомнике
+Пример ответа:
+{
+	"AVAILABLE": 1,
+	"sold": 3,
+	"string": 288,
+	"pending": 10,
+	"available": 631
+}
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1.Статус-код ответа "200 Ok"
+2. Тело ответа соответствует ожидаемому результату
+3. Заголовок соответствует ожидаемому результату</t>
+  </si>
+  <si>
     <t>API_TC_68</t>
   </si>
   <si>
+    <t>Получить информацию о доступности питомцев в питомнике в GET /store/inventory при передаче дополнительного параметра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответ от эндпоинта GET /store/inventory при передаче дополнительного параметра </t>
+  </si>
+  <si>
+    <t>1. Отправить GET-запрос на эндпоинт c дополнительным параметром /store/inventory?extraField=extraValue
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и данные ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/inventory?extraField=extraValue</t>
+    </r>
+  </si>
+  <si>
+    <t>Очевидно, что система игнорирует дополнительные параметры для этого эндпоинта</t>
+  </si>
+  <si>
     <t>API_TC_69</t>
   </si>
   <si>
+    <t>Изменить метод запроса для эндпоинта GET /store/inventory</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/inventory, изменив метод GET на POST</t>
+  </si>
+  <si>
+    <t>Метод POST не должен поддерживаться на эндпоинте</t>
+  </si>
+  <si>
+    <t>1.Отправить POST запрос на эндпоинт GET /store/inventory
+2. Проверить, что статус-код ответа равен "405 Method not Allowed"
+3. Проверить, что заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/inventory</t>
+    </r>
+  </si>
+  <si>
+    <t>GET /store/order/{orderId}</t>
+  </si>
+  <si>
     <t>API_TC_70</t>
   </si>
   <si>
+    <t xml:space="preserve">Получить информацию о заказе в GET /store/order/{orderId} при передаче минимально валидного orderId </t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта GET /store/order/{orderId} при передаче минимально валидного "orderId"=1</t>
+  </si>
+  <si>
+    <t>Убедиться, что "orderId"=1 существует в системе</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/1
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и данные ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/1</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 Ok"
+2. Тело ответа содержит JSON с корретной информацие о заказе
+Пример ответа:
+{
+  "id": 0,
+  "petId": 0,
+  "quantity": 0,
+  "shipDate": "2025-01-16T08:03:49.124Z",
+  "status": "placed",
+  "complete": true
+}
+3. Заголовок Content-Type имеент значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 Ok"
+2. Тело ответа соответствует ожидаемому результату
+{
+        "id": 1,
+        "petId": 1,
+        "quantity": 3,
+        "shipDate": "1980-03-04T00:01:00.100+0000",
+        "status": "placed;start-sleep -s 15.0 #",
+        "complete": true
+}
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
     <t>API_TC_71</t>
   </si>
   <si>
+    <t xml:space="preserve">Получить информацию о заказе в GET /store/order/{orderId} при передаче максимально валидного orderId </t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта GET /store/order/{orderId} при передаче максимально валидного "orderId"=10</t>
+  </si>
+  <si>
+    <t>Убедиться, что "orderId"=10 существует в системе</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/10
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и данные ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/10</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "200 Ok"
+2. Тело ответа содержит JSON с корретной информацие о заказе
+Пример ответа:
+{
+  "id": 0,
+  "petId": 0,
+  "quantity": 0,
+  "shipDate": "2025-01-16T08:03:49.124Z",
+  "status": "placed",
+  "complete": true
+}
+3. Заголовок Content-Type имеент значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 Ok"
+2. Тело ответа соответствует ожидаемому результату
+{
+	"id": 10,
+	"petId": 10,
+	"quantity": 10,
+	"shipDate": "1970-01-01T00:00:00.001+0000",
+	"status": "placed;start-sleep -s 15.0 #",
+	"complete": true
+}
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
     <t>API_TC_72</t>
   </si>
   <si>
+    <t xml:space="preserve">Получить информацию о заказе в GET /store/order/{orderId} при передаче валидного orderId </t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта GET /store/order/{orderId} при передаче валидного "orderId"=5</t>
+  </si>
+  <si>
+    <t>Убедиться, что "orderId"=5 существует в системе</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/5
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и данные ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/5</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 Ok"
+2. Тело ответа соответствует ожидаемому результату
+{
+	"id": 5,
+	"petId": 0,
+	"quantity": 0,
+	"shipDate": "2025-01-16T11:09:26.520+0000",
+	"status": "placed",
+	"complete": true
+}
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
     <t>API_TC_73</t>
   </si>
   <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче валидного orderId на границе максимального значения</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта GET /store/order/{orderId} при передаче валидного "orderId"=9</t>
+  </si>
+  <si>
+    <t>Убедиться, что "orderId"=9 существует в системе</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/9
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и данные ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/9</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 Ok"
+2. Тело ответа соответствует ожидаемому результату
+{
+        "id": 9,
+        "petId": 7,
+        "quantity": 2,
+        "shipDate": "2025-02-16T11:10:32.760+0000",
+        "status": "placed",
+        "complete": true
+}
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
     <t>API_TC_74</t>
+  </si>
+  <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче невалидного orderId на минимальной границе</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/order/{orderId} при передаче невалидного "orderId"=0</t>
+  </si>
+  <si>
+    <t>В системе не можте быть orderId=0</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/0
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить, что в теле ответа содержится message: "Order not found"
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/0</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "404 Not found"
+2. В теле ответа содержится message:"Order not Found"
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "404 Not Found"
+2. В теле ответа содержится message:"Order not Found"
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_75</t>
+  </si>
+  <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче отрицательного orderId</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/order/{orderId} при передаче отрицательного "orderId"=-1</t>
+  </si>
+  <si>
+    <t>В системе невозможен отрицательный orderId</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/-1
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить, что в теле ответа содержится message: "Order not found"
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/-1</t>
+    </r>
+  </si>
+  <si>
+    <t>API_TC_76</t>
+  </si>
+  <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче невалидного orderId на границе макисмального значения</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/order/{orderId} при передаче "orderId"=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Убедиться, что orderId=11 не существует в системе</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/11
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить, что в теле ответа содержится message: "Order not found"
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/11</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 Ok"
+2. Тело ответа не соответствует ожидаемому результату
+Тело ответа:
+{
+	"id": 11,
+	"petId": 22,
+	"quantity": 55,
+	"shipDate": "2025-01-15T11:32:31.982+0000",
+	"status": "delivered",
+	"complete": true
+}
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_77</t>
+  </si>
+  <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче несуществуюшего orderId</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/order/{orderId} при передаче "orderId"=100000</t>
+  </si>
+  <si>
+    <t>Убедиться, что orderId=10000 не существует в системе</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/10000
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить, что в теле ответа содержится message: "Order not found"
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/10000</t>
+    </r>
+  </si>
+  <si>
+    <t>API_TC_78</t>
+  </si>
+  <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче orderId некорректного формата</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/order/{orderId} при передаче "orderId"="Test"</t>
+  </si>
+  <si>
+    <t>В системе не может быть orderId=Test</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/Test
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить, что в теле ответа содержится message c исключением 
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/Test</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "404 Not found"
+2. В теле ответа содержится message c исключением
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "404 Not Found"
+2. В теле ответа содержится message с исключением: ""java.lang.NumberFormatException: For input string: \"Test\"""
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_79</t>
+  </si>
+  <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче пустого orderId</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/order/{orderId} при передаче пустого "orderId"</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/
+2. Проверить, что статус-код ответа равен "405 Method Not Allowed" 
+4. Проверить, что заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код ответа "405 Method Not Allowed"
+2. Заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <t>1.Cервер вернул статус-код ответа "405 Method Not Allowed"
+2. Заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <t>API_TC_80</t>
+  </si>
+  <si>
+    <t>Получить информацию о заказе в GET /store/order/{orderId} при передаче валидного orderId с дополнительным параметром</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта GET /store/order/{orderId} при передаче валидного "orderId"=7 с дополнительным параметром "extraField"="extraValue"</t>
+  </si>
+  <si>
+    <t>Убедиться, что "orderId"=7 существует в системе</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт /store/order/7
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и данные ответа
+4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/7</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 Ok"
+2. Тело ответа не соответствует ожидаемому результату
+Тело ответа:
+{
+	"id": 7,
+	"petId": 14,
+	"quantity": 35,
+	"shipDate": "2025-01-15T11:32:31.982+0000",
+	"status": "placed",
+	"complete": false
+}
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_81</t>
+  </si>
+  <si>
+    <t>Изменить метод запроса для эндпоинта GET /store/order/{orderId}</t>
+  </si>
+  <si>
+    <t>1.Отправить POST запрос на эндпоинт GET /store/order/1
+2. Проверить, что статус-код ответа равен "405 Method not Allowed"
+3. Проверить, что заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3531,6 +4192,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3596,7 +4262,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3650,6 +4316,9 @@
     </xf>
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3933,7 +4602,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" ht="40.5" customHeight="1">
+    <row r="3" ht="34.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -4133,7 +4802,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" ht="40.5" customHeight="1">
+    <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -4483,7 +5152,7 @@
       </c>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" ht="57.75" customHeight="1">
+    <row r="19" ht="39.0" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
@@ -4791,7 +5460,7 @@
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" ht="78.0" customHeight="1">
+    <row r="28" ht="49.5" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>179</v>
       </c>
@@ -5699,7 +6368,7 @@
       </c>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" ht="63.0" customHeight="1">
+    <row r="54" ht="46.5" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>350</v>
       </c>
@@ -6113,7 +6782,7 @@
       </c>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" ht="75.0" customHeight="1">
+    <row r="66" ht="46.5" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>425</v>
       </c>
@@ -6417,7 +7086,7 @@
       </c>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" ht="90.75" customHeight="1">
+    <row r="75" ht="42.0" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>478</v>
       </c>
@@ -6433,140 +7102,580 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" ht="24.75" customHeight="1">
-      <c r="A76" s="8" t="s">
+    <row r="76" ht="42.0" customHeight="1">
+      <c r="A76" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-    </row>
-    <row r="77">
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" ht="210.75" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>482</v>
+      </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
+      <c r="E77" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L77" s="10"/>
     </row>
-    <row r="78">
+    <row r="78" ht="216.0" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="8"/>
+        <v>487</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>489</v>
+      </c>
       <c r="D78" s="8"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-    </row>
-    <row r="79">
+      <c r="E78" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="79" ht="105.0" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
+        <v>493</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L79" s="10"/>
     </row>
-    <row r="80">
-      <c r="A80" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-    </row>
-    <row r="81">
+    <row r="80" ht="42.0" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" ht="222.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" ht="213.0" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
+        <v>508</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" ht="203.25" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
+        <v>516</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L83" s="10"/>
+    </row>
+    <row r="84" ht="203.25" customHeight="1">
+      <c r="A84" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="10"/>
+    </row>
+    <row r="85" ht="167.25" customHeight="1">
+      <c r="A85" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" s="10"/>
+    </row>
+    <row r="86" ht="158.25" customHeight="1">
+      <c r="A86" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" s="10"/>
+    </row>
+    <row r="87" ht="211.5" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L87" s="10"/>
+    </row>
+    <row r="88" ht="150.75" customHeight="1">
+      <c r="A88" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" s="10"/>
+    </row>
+    <row r="89" ht="102.75" customHeight="1">
+      <c r="A89" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" s="10"/>
+    </row>
+    <row r="90" ht="138.75" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" s="10"/>
+    </row>
+    <row r="91" ht="234.0" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="10"/>
+    </row>
+    <row r="92" ht="111.0" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" s="10"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E53 E55:E65 E67:E74 E77:E83">
+    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E53 E55:E65 E67:E74 E77:E79 E81:E92">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F53 F55:F65 F67:F74 F77:F83">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F53 F55:F65 F67:F74 F77:F79 F81:F92">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6588,7 +7697,8 @@
     <hyperlink r:id="rId15" location="/pet/uploadFile" ref="H25"/>
     <hyperlink r:id="rId16" location="/pet/uploadFile" ref="H26"/>
     <hyperlink r:id="rId17" location="/pet/uploadFile" ref="H27"/>
+    <hyperlink r:id="rId18" ref="H92"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="610">
   <si>
     <t>Test case id</t>
   </si>
@@ -85,6 +85,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. Статус-код: "200 OK"
@@ -95,9 +96,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/getPetById
 </t>
@@ -105,6 +105,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json</t>
@@ -161,6 +162,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. Статус-код "404 Not Found"
@@ -171,9 +173,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/getPetById
 </t>
@@ -181,6 +182,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json</t>
@@ -231,6 +233,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. Статус-код "400 Bad Request"
@@ -241,15 +244,15 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t>https://petstore.swagger.io/#/pet/getPetById</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
@@ -392,13 +395,14 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=available</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. Статус-код: "200 OK"
@@ -409,9 +413,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/findPetsByStatus
 </t>
@@ -419,6 +422,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json</t>
@@ -457,13 +461,14 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=pending</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. Статус-код: "200 OK"
@@ -474,9 +479,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/findPetsByStatus
 </t>
@@ -484,6 +488,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json</t>
@@ -522,13 +527,14 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=sold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. Статус-код: "200 OK"
@@ -539,9 +545,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/findPetsByStatus
 </t>
@@ -549,6 +554,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json</t>
@@ -587,11 +593,11 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Статус-код "400" Bad Reauest
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=Test</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код "400" Bad Request
 2. Тело ответа содержит JSON с сообщением "Invalid status value"
 Пример ответа:
 https://petstore.swagger.io/#/pet/findPetsByStatus
@@ -603,7 +609,7 @@
 3. Заголовок Content-Type соответствует ожидаемому результату</t>
   </si>
   <si>
-    <t>Ответ отличается по статус-коду (ожидался 400, а получен 200). Также отсутствует сообщение об ошибке в теле ответа, а вместо этого возвращается пустой массив</t>
+    <t>Ответ отличается по статус-коду (ожидался 400, а получен 200). Также отсутствует сообщение об ошибке в теле ответа, вместо этого возвращается пустой массив</t>
   </si>
   <si>
     <t>API_TC_10</t>
@@ -617,7 +623,7 @@
   <si>
     <t>1. Отправить GET-запрос на эндпоинт /pet/findByStatus, передав параметр "status"=" sold "
 2. Проверить статус-код ответа
-3.Проверить, что тело ответа содержит сообщение "Invalid status value"
+3.Проверить, структуру и данные ответа
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
@@ -635,8 +641,31 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
-    </r>
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> sold </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа содержит JSON c питомцами со "status"="sold"
+Пример ответа:
+https://petstore.swagger.io/#/pet/findPetsByStatus
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 OK" статус код
+2. Тело ответа содержит массив c питомцами со "status"="sold"
+3. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>Очевидно, что система обрезает пробелы до и после значения, перед тем как сделать запрос в БД</t>
   </si>
   <si>
     <t>API_TC_11</t>
@@ -668,8 +697,26 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
-    </r>
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>""</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. Тело ответа содержит JSON с сообщением "Invalid status value"
+Пример ответа:
+https://petstore.swagger.io/#/pet/findPetsByStatus
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>Ответ отличается по статус-коду (ожидался 400, получен 200). Также отсутствует сообщение об ошибке в теле ответа, вместо этого возвращается пустой массив</t>
   </si>
   <si>
     <t>API_TC_12</t>
@@ -701,7 +748,7 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=1</t>
     </r>
   </si>
   <si>
@@ -738,6 +785,9 @@
     </r>
   </si>
   <si>
+    <t>Ответ отличается по статус-коду (ожидался 400, получен 200). Также отсутствует сообщение об ошибке в теле ответа, а вместо этого возвращается пустой массив</t>
+  </si>
+  <si>
     <t>API_TC_14</t>
   </si>
   <si>
@@ -766,7 +816,7 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/pet/findByStatus</t>
+      <t>https://petstore.swagger.io/v2/pet/findByStatus?status=Test</t>
     </r>
   </si>
   <si>
@@ -804,11 +854,19 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/3/uploadImage</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF1155CC"/>
         <sz val="11.0"/>
         <u/>
       </rPr>
-      <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -825,6 +883,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1 Статус-код "200 OK"
@@ -835,9 +894,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
 </t>
@@ -845,6 +903,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json
@@ -886,26 +945,26 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>additionalMetadata="New Test"(в формате multipart/form-data)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t>https://petstore.swagger.io/v2/pet/3/uploadImage</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+additionalMetadata="New Test"(в формате multipart/form-data)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1 Статус-код "200 OK"
@@ -916,9 +975,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
 </t>
@@ -926,6 +984,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json
@@ -973,26 +1032,26 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>file="dog.png"(в формате multipart/form-data)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+      <t>https://petstore.swagger.io/v2/pet/3/uploadImage</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+file="dog.png"(в формате multipart/form-data)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1 Статус-код "200 OK"
@@ -1003,9 +1062,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
 </t>
@@ -1013,6 +1071,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t>3. Заголовок Content-Type имеет значение application/json
@@ -1034,8 +1093,7 @@
   <si>
     <t>1. Отправить POST-запрос на эндпоинт /pet/{petId}/uploadImage с параметром "petId"=7, но без "file"
 2. Проверить статус-код ответа
-3. Проверить, что тело ответа содержит сообщение successful operation
-4. Проверить, что заголовок Content-Type имеет значение application/json</t>
+3. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
     <r>
@@ -1049,11 +1107,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>https://petstore.swagger.io/#/pet/uploadFile</t>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/7/uploadImage</t>
     </r>
   </si>
   <si>
@@ -1079,7 +1136,7 @@
     <t>В системе отсутствует "petId"=-1</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Отправить POST-запрос на эндпоинт /pet/{petId}/uploadImage с параметрами "petId"=1234, "additionalMetadata"="HI" и file="cat.png"
+    <t xml:space="preserve">1. Отправить POST-запрос на эндпоинт /pet/{petId}/uploadImage с параметрами "petId"=-1, "additionalMetadata"="HI" и file="cat.png"
 Формат запроса: multipart/form-data
 2. Проверить статус-код ответа
 </t>
@@ -1096,26 +1153,26 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>"additionalMetadata"="HI"(в формате "multipart/form-data"
+      <t>https://petstore.swagger.io/v2/pet/-1/uploadImage</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+"additionalMetadata"="HI"(в формате "multipart/form-data"
 "file"="cat.png"(в формате "miltipart/form-data"</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">	1. Статус-код: "400 Bad Request" или "404 Not Found"
-2. Тело ответа содержит сообщение об ошибке</t>
+    <t xml:space="preserve">        1. Статус-код: "400 Bad Request" или "404 Not Found"
+2. Тело ответа содержит сообщение об ошибке
+3. Заголовок Content-Type: application/json</t>
   </si>
   <si>
     <t>1. Статус-код "200 Ok"
@@ -1131,7 +1188,7 @@
     <t>Отрицательное значение "petId" в POST /pet/{petId}/uploadImage, без дополнительных параметров</t>
   </si>
   <si>
-    <t xml:space="preserve">        Поведение системы при передаче отрицательного значения "petId"=-10 без дополнительных параметров</t>
+    <t xml:space="preserve"> Поведение системы при передаче отрицательного значения "petId"=-10 без дополнительных параметров</t>
   </si>
   <si>
     <t>В системе отсутствует "petId"=-10</t>
@@ -1155,11 +1212,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>https://petstore.swagger.io/#/pet/uploadFile</t>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/-10/uploadImage</t>
     </r>
   </si>
   <si>
@@ -1202,11 +1258,19 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/10/uploadImage</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF1155CC"/>
         <sz val="11.0"/>
         <u/>
       </rPr>
-      <t xml:space="preserve">https://petstore.swagger.io/#/pet/uploadFile
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1257,11 +1321,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>https://petstore.swagger.io/#/pet/uploadFile</t>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/3/uploadImage</t>
     </r>
   </si>
   <si>
@@ -1307,7 +1370,7 @@
 6. Убедиться что питомец с id=11 присутствует в системе и его данные идентичны телу запроса</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
    {
@@ -1382,7 +1445,7 @@
 6. Убедиться что питомец id=14 присутствует в системе и его данные идентичны телу запроса</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
    {
@@ -1461,7 +1524,7 @@
 6. Убедиться что питомец id=17 присутствует в системе и его данные идентичны телу запроса</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -1537,7 +1600,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -1614,7 +1677,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -1750,7 +1813,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -1812,7 +1875,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
  json
 {
@@ -1876,7 +1939,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -1947,7 +2010,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -2022,7 +2085,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -2087,7 +2150,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -2162,7 +2225,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -2220,7 +2283,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 json
 {
@@ -2278,7 +2341,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 {
         "id": 25,
@@ -2342,7 +2405,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 body:
 {
         "id": 25,
@@ -2390,7 +2453,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet</t>
+    <t>URL:https://petstore.swagger.io/v2/pet</t>
   </si>
   <si>
     <t>1. Статус-код "405 Method Not Allowed"
@@ -2441,7 +2504,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 json
 {
         "id": 17,
@@ -2506,7 +2569,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 json
 {
         "id": 17,
@@ -2583,7 +2646,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 json
 {
         "id": -1,
@@ -2659,7 +2722,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 json
 {
         "id": 1000000000000000000 ,
@@ -2735,7 +2798,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 json
 {
         "id": 20,
@@ -2810,7 +2873,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 json
 {
         "id": 21,
@@ -2877,7 +2940,7 @@
 4. Проверить, что заголовок Content-Type имеет значение application/json"</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/addPet
+    <t>URL:https://petstore.swagger.io/v2/pet
 json
 {
         "id": 1,
@@ -4141,12 +4204,105 @@
       <t>https://petstore.swagger.io/v2/store/order/1</t>
     </r>
   </si>
+  <si>
+    <t>POST /store/order</t>
+  </si>
+  <si>
+    <t>API_TC_82</t>
+  </si>
+  <si>
+    <t>Создание нового заказа с передачей валидного body в POST /store/order</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта POST /store/order, если передан валидный JSON в теле запроса</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=15</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 15,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/15
+6. Убедиться что заказ с orderId=15 присутствует в системе и его данные идентичны телу запроса</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+  {
+  "id": 15,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type имеет значение application/json
+4.При запросе GET /store/order/15 данные заказа совпадают с данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ находится в системе при выполнении запроса GET /store/order/15</t>
+  </si>
+  <si>
+    <t>API_TC_83</t>
+  </si>
+  <si>
+    <t>API_TC_84</t>
+  </si>
+  <si>
+    <t>API_TC_85</t>
+  </si>
+  <si>
+    <t>API_TC_86</t>
+  </si>
+  <si>
+    <t>API_TC_87</t>
+  </si>
+  <si>
+    <t>API_TC_88</t>
+  </si>
+  <si>
+    <t>API_TC_89</t>
+  </si>
+  <si>
+    <t>API_TC_90</t>
+  </si>
+  <si>
+    <t>API_TC_91</t>
+  </si>
+  <si>
+    <t>API_TC_92</t>
+  </si>
+  <si>
+    <t>API_TC_93</t>
+  </si>
+  <si>
+    <t>API_TC_94</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4182,12 +4338,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -4262,7 +4412,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4299,13 +4449,10 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4317,8 +4464,35 @@
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4541,7 +4715,7 @@
     <col customWidth="1" min="3" max="3" width="41.88"/>
     <col customWidth="1" min="4" max="4" width="35.5"/>
     <col customWidth="1" min="7" max="7" width="47.0"/>
-    <col customWidth="1" min="8" max="8" width="50.88"/>
+    <col customWidth="1" min="8" max="8" width="54.13"/>
     <col customWidth="1" min="9" max="9" width="42.25"/>
     <col customWidth="1" min="10" max="10" width="44.5"/>
     <col customWidth="1" min="11" max="11" width="15.63"/>
@@ -4676,7 +4850,7 @@
       <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -4712,7 +4886,7 @@
       <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -4750,7 +4924,7 @@
       <c r="G7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -4788,7 +4962,7 @@
       <c r="G8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>60</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -4840,7 +5014,7 @@
       <c r="G10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>67</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -4876,7 +5050,7 @@
       <c r="G11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -4912,7 +5086,7 @@
       <c r="G12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -4948,7 +5122,7 @@
       <c r="G13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>88</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -4986,31 +5160,31 @@
       <c r="G14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" ht="117.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>86</v>
@@ -5022,13 +5196,13 @@
         <v>29</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>90</v>
@@ -5037,18 +5211,18 @@
         <v>42</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>86</v>
@@ -5060,10 +5234,10 @@
         <v>29</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>89</v>
@@ -5075,18 +5249,18 @@
         <v>42</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="138.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>86</v>
@@ -5098,10 +5272,10 @@
         <v>29</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>89</v>
@@ -5113,18 +5287,18 @@
         <v>42</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" ht="128.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>57</v>
@@ -5136,10 +5310,10 @@
         <v>29</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>51</v>
@@ -5154,7 +5328,7 @@
     </row>
     <row r="19" ht="39.0" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -5170,16 +5344,16 @@
     </row>
     <row r="20" ht="186.0" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>18</v>
@@ -5188,16 +5362,16 @@
         <v>19</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>24</v>
@@ -5206,16 +5380,16 @@
     </row>
     <row r="21" ht="201.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>18</v>
@@ -5224,36 +5398,36 @@
         <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" ht="219.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>18</v>
@@ -5262,16 +5436,16 @@
         <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>24</v>
@@ -5280,16 +5454,16 @@
     </row>
     <row r="23" ht="201.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>18</v>
@@ -5298,34 +5472,34 @@
         <v>29</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L23" s="10"/>
     </row>
     <row r="24" ht="148.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>18</v>
@@ -5334,36 +5508,36 @@
         <v>29</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" ht="156.0" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>18</v>
@@ -5372,16 +5546,16 @@
         <v>29</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>24</v>
@@ -5390,16 +5564,16 @@
     </row>
     <row r="26" ht="132.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>18</v>
@@ -5408,16 +5582,16 @@
         <v>29</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>42</v>
@@ -5426,16 +5600,16 @@
     </row>
     <row r="27" ht="78.0" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>58</v>
@@ -5444,10 +5618,10 @@
         <v>29</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>51</v>
@@ -5462,7 +5636,7 @@
     </row>
     <row r="28" ht="49.5" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -5478,16 +5652,16 @@
     </row>
     <row r="29" ht="418.5" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>18</v>
@@ -5496,16 +5670,16 @@
         <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>24</v>
@@ -5514,16 +5688,16 @@
     </row>
     <row r="30" ht="435.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>18</v>
@@ -5532,16 +5706,16 @@
         <v>19</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>24</v>
@@ -5550,16 +5724,16 @@
     </row>
     <row r="31" ht="481.5" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>18</v>
@@ -5568,16 +5742,16 @@
         <v>19</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>24</v>
@@ -5586,13 +5760,13 @@
     </row>
     <row r="32" ht="420.0" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
@@ -5602,36 +5776,36 @@
         <v>29</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" ht="387.0" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>18</v>
@@ -5640,36 +5814,36 @@
         <v>29</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" ht="456.0" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>18</v>
@@ -5678,16 +5852,16 @@
         <v>29</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>42</v>
@@ -5696,16 +5870,16 @@
     </row>
     <row r="35" ht="451.5" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>18</v>
@@ -5714,16 +5888,16 @@
         <v>29</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>42</v>
@@ -5732,16 +5906,16 @@
     </row>
     <row r="36" ht="302.25" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>18</v>
@@ -5750,16 +5924,16 @@
         <v>29</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>42</v>
@@ -5768,16 +5942,16 @@
     </row>
     <row r="37" ht="444.0" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>18</v>
@@ -5786,16 +5960,16 @@
         <v>29</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>42</v>
@@ -5804,13 +5978,13 @@
     </row>
     <row r="38" ht="491.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
@@ -5820,16 +5994,16 @@
         <v>29</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>24</v>
@@ -5838,13 +6012,13 @@
     </row>
     <row r="39" ht="477.0" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
@@ -5854,16 +6028,16 @@
         <v>29</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H39" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>253</v>
-      </c>
       <c r="J39" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>24</v>
@@ -5872,13 +6046,13 @@
     </row>
     <row r="40" ht="503.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
@@ -5888,31 +6062,31 @@
         <v>29</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L40" s="10"/>
     </row>
     <row r="41" ht="477.75" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
@@ -5922,16 +6096,16 @@
         <v>29</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>24</v>
@@ -5940,13 +6114,13 @@
     </row>
     <row r="42" ht="425.25" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
@@ -5956,16 +6130,16 @@
         <v>29</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>24</v>
@@ -5974,13 +6148,13 @@
     </row>
     <row r="43" ht="522.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
@@ -5990,16 +6164,16 @@
         <v>29</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>24</v>
@@ -6008,13 +6182,13 @@
     </row>
     <row r="44" ht="459.0" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
@@ -6024,16 +6198,16 @@
         <v>29</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>42</v>
@@ -6042,13 +6216,13 @@
     </row>
     <row r="45" ht="276.0" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
@@ -6058,16 +6232,16 @@
         <v>29</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>24</v>
@@ -6076,13 +6250,13 @@
     </row>
     <row r="46" ht="472.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
@@ -6092,16 +6266,16 @@
         <v>29</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>24</v>
@@ -6110,13 +6284,13 @@
     </row>
     <row r="47" ht="470.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
@@ -6126,36 +6300,36 @@
         <v>29</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" ht="495.0" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>18</v>
@@ -6164,36 +6338,36 @@
         <v>29</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" ht="465.0" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>18</v>
@@ -6202,36 +6376,36 @@
         <v>29</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" ht="471.0" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>18</v>
@@ -6240,36 +6414,36 @@
         <v>29</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" ht="488.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>58</v>
@@ -6278,16 +6452,16 @@
         <v>29</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>24</v>
@@ -6296,16 +6470,16 @@
     </row>
     <row r="52" ht="462.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>48</v>
@@ -6314,36 +6488,36 @@
         <v>29</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" ht="149.25" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>58</v>
@@ -6352,16 +6526,16 @@
         <v>29</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>24</v>
@@ -6370,32 +6544,32 @@
     </row>
     <row r="54" ht="46.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="17"/>
+        <v>356</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" ht="218.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>18</v>
@@ -6404,16 +6578,16 @@
         <v>19</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>42</v>
@@ -6422,16 +6596,16 @@
     </row>
     <row r="56" ht="184.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>18</v>
@@ -6440,16 +6614,16 @@
         <v>19</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>42</v>
@@ -6458,16 +6632,16 @@
     </row>
     <row r="57" ht="231.75" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>18</v>
@@ -6476,16 +6650,16 @@
         <v>19</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H57" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="I57" s="11" t="s">
-        <v>365</v>
-      </c>
       <c r="J57" s="8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>42</v>
@@ -6494,16 +6668,16 @@
     </row>
     <row r="58" ht="182.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>18</v>
@@ -6512,16 +6686,16 @@
         <v>19</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>24</v>
@@ -6530,16 +6704,16 @@
     </row>
     <row r="59" ht="183.0" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>18</v>
@@ -6548,36 +6722,36 @@
         <v>29</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="175.5" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -6586,16 +6760,16 @@
         <v>29</v>
       </c>
       <c r="G60" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>42</v>
@@ -6604,16 +6778,16 @@
     </row>
     <row r="61" ht="192.0" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>18</v>
@@ -6622,16 +6796,16 @@
         <v>29</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>42</v>
@@ -6640,16 +6814,16 @@
     </row>
     <row r="62" ht="211.5" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>18</v>
@@ -6658,16 +6832,16 @@
         <v>29</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H62" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I62" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>399</v>
-      </c>
       <c r="J62" s="8" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>42</v>
@@ -6676,16 +6850,16 @@
     </row>
     <row r="63" ht="219.0" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>18</v>
@@ -6694,16 +6868,16 @@
         <v>29</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>42</v>
@@ -6712,16 +6886,16 @@
     </row>
     <row r="64" ht="231.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>18</v>
@@ -6730,16 +6904,16 @@
         <v>29</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>42</v>
@@ -6748,16 +6922,16 @@
     </row>
     <row r="65" ht="170.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>58</v>
@@ -6766,16 +6940,16 @@
         <v>29</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>24</v>
@@ -6784,32 +6958,32 @@
     </row>
     <row r="66" ht="46.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="17"/>
+        <v>431</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="16"/>
     </row>
     <row r="67" ht="150.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>18</v>
@@ -6818,16 +6992,16 @@
         <v>19</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>24</v>
@@ -6836,16 +7010,16 @@
     </row>
     <row r="68" ht="171.75" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>18</v>
@@ -6854,16 +7028,16 @@
         <v>19</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>24</v>
@@ -6872,16 +7046,16 @@
     </row>
     <row r="69" ht="211.5" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>18</v>
@@ -6890,16 +7064,16 @@
         <v>29</v>
       </c>
       <c r="G69" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>437</v>
-      </c>
       <c r="I69" s="11" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>24</v>
@@ -6908,16 +7082,16 @@
     </row>
     <row r="70" ht="170.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>18</v>
@@ -6926,16 +7100,16 @@
         <v>29</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>24</v>
@@ -6944,16 +7118,16 @@
     </row>
     <row r="71" ht="169.5" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>48</v>
@@ -6962,16 +7136,16 @@
         <v>29</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>24</v>
@@ -6980,16 +7154,16 @@
     </row>
     <row r="72" ht="147.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>48</v>
@@ -6998,16 +7172,16 @@
         <v>29</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>24</v>
@@ -7016,16 +7190,16 @@
     </row>
     <row r="73" ht="100.5" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>48</v>
@@ -7034,16 +7208,16 @@
         <v>29</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H73" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="I73" s="11" t="s">
-        <v>465</v>
-      </c>
       <c r="J73" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>24</v>
@@ -7052,16 +7226,16 @@
     </row>
     <row r="74" ht="90.75" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>18</v>
@@ -7070,16 +7244,16 @@
         <v>29</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>24</v>
@@ -7088,7 +7262,7 @@
     </row>
     <row r="75" ht="42.0" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7104,29 +7278,29 @@
     </row>
     <row r="76" ht="42.0" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="17"/>
+        <v>485</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="16"/>
     </row>
     <row r="77" ht="210.75" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8" t="s">
@@ -7136,16 +7310,16 @@
         <v>19</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>484</v>
+        <v>489</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>24</v>
@@ -7154,13 +7328,13 @@
     </row>
     <row r="78" ht="216.0" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
@@ -7170,36 +7344,36 @@
         <v>29</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H78" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="I78" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="I78" s="11" t="s">
-        <v>485</v>
-      </c>
       <c r="J78" s="8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" ht="105.0" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>58</v>
@@ -7208,16 +7382,16 @@
         <v>29</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>498</v>
+        <v>503</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>24</v>
@@ -7226,32 +7400,32 @@
     </row>
     <row r="80" ht="42.0" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="17"/>
+        <v>505</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="16"/>
     </row>
     <row r="81" ht="222.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>18</v>
@@ -7260,16 +7434,16 @@
         <v>19</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>505</v>
+        <v>510</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>511</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>24</v>
@@ -7278,16 +7452,16 @@
     </row>
     <row r="82" ht="213.0" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>18</v>
@@ -7296,16 +7470,16 @@
         <v>19</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>513</v>
+        <v>518</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>519</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>24</v>
@@ -7314,16 +7488,16 @@
     </row>
     <row r="83" ht="203.25" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>18</v>
@@ -7332,16 +7506,16 @@
         <v>19</v>
       </c>
       <c r="G83" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="I83" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="H83" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>514</v>
-      </c>
       <c r="J83" s="8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>24</v>
@@ -7350,16 +7524,16 @@
     </row>
     <row r="84" ht="203.25" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>18</v>
@@ -7368,16 +7542,16 @@
         <v>19</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>528</v>
+        <v>533</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>24</v>
@@ -7386,16 +7560,16 @@
     </row>
     <row r="85" ht="167.25" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>18</v>
@@ -7404,16 +7578,16 @@
         <v>29</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>535</v>
+        <v>540</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>541</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>24</v>
@@ -7422,16 +7596,16 @@
     </row>
     <row r="86" ht="158.25" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>18</v>
@@ -7440,16 +7614,16 @@
         <v>29</v>
       </c>
       <c r="G86" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="I86" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="J86" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>24</v>
@@ -7458,16 +7632,16 @@
     </row>
     <row r="87" ht="211.5" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>18</v>
@@ -7476,16 +7650,16 @@
         <v>29</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>549</v>
+        <v>554</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>555</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>42</v>
@@ -7494,16 +7668,16 @@
     </row>
     <row r="88" ht="150.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>18</v>
@@ -7512,16 +7686,16 @@
         <v>29</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>556</v>
+        <v>561</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>562</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>24</v>
@@ -7530,16 +7704,16 @@
     </row>
     <row r="89" ht="102.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>18</v>
@@ -7548,16 +7722,16 @@
         <v>29</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>562</v>
+        <v>567</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>24</v>
@@ -7566,13 +7740,13 @@
     </row>
     <row r="90" ht="138.75" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
@@ -7582,16 +7756,16 @@
         <v>29</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>569</v>
+        <v>574</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>575</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>24</v>
@@ -7600,16 +7774,16 @@
     </row>
     <row r="91" ht="234.0" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>58</v>
@@ -7618,16 +7792,16 @@
         <v>29</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>577</v>
+        <v>582</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>583</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>24</v>
@@ -7636,16 +7810,16 @@
     </row>
     <row r="92" ht="111.0" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>58</v>
@@ -7654,51 +7828,321 @@
         <v>29</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>582</v>
+        <v>587</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>588</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L92" s="10"/>
     </row>
+    <row r="93" ht="42.0" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="16"/>
+    </row>
+    <row r="94" ht="425.25" customHeight="1">
+      <c r="A94" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="10"/>
+    </row>
+    <row r="95" ht="123.75" customHeight="1">
+      <c r="A95" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="21"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="21"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="21"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="21"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="21"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="21"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="21"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="21"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="21"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="21"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="21"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="21"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="22"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="26"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="26"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="22"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="26"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E53 E55:E65 E67:E74 E77:E79 E81:E92">
+    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E53 E55:E65 E67:E74 E77:E79 E81:E92 E94:E106">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F53 F55:F65 F67:F74 F77:F79 F81:F92">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F53 F55:F65 F67:F74 F77:F79 F81:F92 F94:F106">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="/pet/getPetById" ref="I4"/>
-    <hyperlink r:id="rId2" location="/pet/getPetById" ref="I5"/>
-    <hyperlink r:id="rId3" location="/pet/getPetById" ref="I6"/>
-    <hyperlink r:id="rId4" location="/pet/getPetById" ref="I10"/>
-    <hyperlink r:id="rId5" location="/pet/getPetById" ref="I11"/>
-    <hyperlink r:id="rId6" location="/pet/getPetById" ref="I12"/>
-    <hyperlink r:id="rId7" location="/pet/uploadFile" ref="H20"/>
-    <hyperlink r:id="rId8" location="/pet/uploadFile" ref="I20"/>
-    <hyperlink r:id="rId9" location="/pet/uploadFile" ref="H21"/>
-    <hyperlink r:id="rId10" location="/pet/uploadFile" ref="I21"/>
-    <hyperlink r:id="rId11" location="/pet/uploadFile" ref="H22"/>
-    <hyperlink r:id="rId12" location="/pet/uploadFile" ref="I22"/>
-    <hyperlink r:id="rId13" location="/pet/uploadFile" ref="H23"/>
-    <hyperlink r:id="rId14" location="/pet/uploadFile" ref="H24"/>
-    <hyperlink r:id="rId15" location="/pet/uploadFile" ref="H25"/>
-    <hyperlink r:id="rId16" location="/pet/uploadFile" ref="H26"/>
-    <hyperlink r:id="rId17" location="/pet/uploadFile" ref="H27"/>
-    <hyperlink r:id="rId18" ref="H92"/>
+    <hyperlink r:id="rId1" location="/pet/uploadFile" ref="H26"/>
+    <hyperlink r:id="rId2" ref="H92"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="612">
   <si>
     <t>Test case id</t>
   </si>
@@ -2145,8 +2145,8 @@
         ],
         "status": "available"
 }
-2. Проверить, что статус-код ответа равен "500 Internal Server Error"
-3. Проверить, что в теле ответа содержится сообщение об ошибке (например, "something bad happened")
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить, что тело ответа идентично телу запроса
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
   </si>
   <si>
@@ -2177,6 +2177,11 @@
 }</t>
   </si>
   <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа идентично телу запроса
+3.Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
     <t>1. Сервер вернул "200 Ok"
 2. Поле "name" присутствует в теле ответа, с типом строка
 3. Тело ответа идентично телу запроса
@@ -2184,7 +2189,7 @@
 5. Новый питомец находится в система при выполнении GET /pet/25, name присутствует и равно "11111"</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Очевидно, что система сделала преобразование числа в строку</t>
   </si>
   <si>
     <t>API_TC_35</t>
@@ -2602,6 +2607,9 @@
 5. Новый питомец находится в системе при выполнении GET /pet/17, extraField отсутствует</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Система не реагирует на доплонительные поля в JSON при передаче запроса, уточнить, должна ли реагировать или нет?</t>
   </si>
   <si>
@@ -3016,10 +3024,32 @@
 5. Убедиться что у питомца с petId=10 поля "name" и "status" хранят значения из запроса</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=10
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/10</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "name"="TestPet"
 "status"="available"</t>
+    </r>
   </si>
   <si>
     <t>1. Статус-код ответа "200 OK"
@@ -3052,9 +3082,31 @@
 5. Убедиться что у питомца с "petId"=4 поле "name"  хранит значение из запроса</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=4
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "name"="TestPet"</t>
+    </r>
   </si>
   <si>
     <t>1. Статус-код ответа "200 OK"
@@ -3084,9 +3136,31 @@
 5. Убедиться что у питомца с "petId"=4 поле "name"  хранит значение из запроса</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=4
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "status"="available"</t>
+    </r>
   </si>
   <si>
     <t>API_TC_51</t>
@@ -3105,8 +3179,22 @@
 5. Убедиться что у питомца с "petId"=4 не изменились поля "name" и "status"</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=4</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/4</t>
+    </r>
   </si>
   <si>
     <t>1. Статус-код ответа "200 OK"
@@ -3133,8 +3221,7 @@
 4. Проверить, что в теле ответа содержится сообщение об ошибке (например, "petId doesn't exist")</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=7
+    <t>URL: https://petstore.swagger.io/v2/pet/7
 "name"="Test"
 "status"="available"</t>
   </si>
@@ -3171,10 +3258,32 @@
 4. Проверить, что в теле ответа содержится сообщение об ошибке (например, "petId incorrect")</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"="TEST"
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/TEST</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "name"="PET"
 "status"="sold"</t>
+    </r>
   </si>
   <si>
     <t>API_TC_54</t>
@@ -3197,10 +3306,32 @@
 5. Проверить что при запросе GET /pet/7 данные питомца остались неизменны</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=7
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/7</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "name"=4
 "status"=12</t>
+    </r>
   </si>
   <si>
     <t>1. Статус-код ответа "500 Internal Server Error"
@@ -3232,9 +3363,31 @@
 5. Проверить что при запросе GET /pet/7 данные питомца остались неизменны</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=7
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/7</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "name"=значение в 1000 символов</t>
+    </r>
   </si>
   <si>
     <t>API_TC_56</t>
@@ -3254,9 +3407,31 @@
 5. Проверить что при запросе GET /pet/7 данные питомца остались неизменны</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=7
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/7</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "name"=""</t>
+    </r>
   </si>
   <si>
     <t>API_TC_57</t>
@@ -3275,9 +3450,31 @@
 4. Проверить что при запросе GET /pet/7  поле "status" хранит значение из запроса</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=7
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/7</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "status"=" sold "</t>
+    </r>
   </si>
   <si>
     <t>1. Статус-код ответа "200 OK"
@@ -3303,10 +3500,32 @@
 4. Проверить, что при запросе GET /pet/7 данные питомца не изменились</t>
   </si>
   <si>
-    <t>URL: https://petstore.swagger.io/#/pet/updatePetWithForm
-"petId"=7
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/pet/7</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
 "name"="Pet"
 "status"="sold"</t>
+    </r>
   </si>
   <si>
     <t>1. Статус-код "405 Method Not Allowed"
@@ -6068,25 +6287,27 @@
         <v>270</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="L40" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="41" ht="477.75" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
@@ -6096,10 +6317,10 @@
         <v>29</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>259</v>
@@ -6114,13 +6335,13 @@
     </row>
     <row r="42" ht="425.25" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
@@ -6130,10 +6351,10 @@
         <v>29</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>259</v>
@@ -6148,13 +6369,13 @@
     </row>
     <row r="43" ht="522.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
@@ -6164,10 +6385,10 @@
         <v>29</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>259</v>
@@ -6182,13 +6403,13 @@
     </row>
     <row r="44" ht="459.0" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
@@ -6198,16 +6419,16 @@
         <v>29</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>259</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>42</v>
@@ -6216,13 +6437,13 @@
     </row>
     <row r="45" ht="276.0" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
@@ -6232,16 +6453,16 @@
         <v>29</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>24</v>
@@ -6250,13 +6471,13 @@
     </row>
     <row r="46" ht="472.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
@@ -6266,10 +6487,10 @@
         <v>29</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>259</v>
@@ -6284,13 +6505,13 @@
     </row>
     <row r="47" ht="470.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
@@ -6300,36 +6521,36 @@
         <v>29</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>259</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" ht="495.0" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>18</v>
@@ -6338,36 +6559,36 @@
         <v>29</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>259</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" ht="465.0" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>18</v>
@@ -6376,36 +6597,36 @@
         <v>29</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>259</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" ht="471.0" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>18</v>
@@ -6414,36 +6635,36 @@
         <v>29</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>259</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" ht="488.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>58</v>
@@ -6452,10 +6673,10 @@
         <v>29</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>259</v>
@@ -6470,16 +6691,16 @@
     </row>
     <row r="52" ht="462.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>48</v>
@@ -6488,33 +6709,33 @@
         <v>29</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" ht="149.25" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>182</v>
@@ -6526,16 +6747,16 @@
         <v>29</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>24</v>
@@ -6544,7 +6765,7 @@
     </row>
     <row r="54" ht="46.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -6560,16 +6781,16 @@
     </row>
     <row r="55" ht="218.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>18</v>
@@ -6578,16 +6799,16 @@
         <v>19</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>42</v>
@@ -6596,16 +6817,16 @@
     </row>
     <row r="56" ht="184.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>18</v>
@@ -6614,16 +6835,16 @@
         <v>19</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>42</v>
@@ -6632,16 +6853,16 @@
     </row>
     <row r="57" ht="231.75" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>18</v>
@@ -6650,16 +6871,16 @@
         <v>19</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>42</v>
@@ -6668,16 +6889,16 @@
     </row>
     <row r="58" ht="182.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>18</v>
@@ -6686,16 +6907,16 @@
         <v>19</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>24</v>
@@ -6704,16 +6925,16 @@
     </row>
     <row r="59" ht="183.0" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>18</v>
@@ -6722,36 +6943,36 @@
         <v>29</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" ht="175.5" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -6760,16 +6981,16 @@
         <v>29</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>400</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>42</v>
@@ -6778,16 +6999,16 @@
     </row>
     <row r="61" ht="192.0" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>18</v>
@@ -6796,16 +7017,16 @@
         <v>29</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>42</v>
@@ -6814,16 +7035,16 @@
     </row>
     <row r="62" ht="211.5" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>18</v>
@@ -6832,16 +7053,16 @@
         <v>29</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>42</v>
@@ -6850,16 +7071,16 @@
     </row>
     <row r="63" ht="219.0" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>18</v>
@@ -6868,16 +7089,16 @@
         <v>29</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>42</v>
@@ -6886,16 +7107,16 @@
     </row>
     <row r="64" ht="231.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>18</v>
@@ -6904,16 +7125,16 @@
         <v>29</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>42</v>
@@ -6922,16 +7143,16 @@
     </row>
     <row r="65" ht="170.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>58</v>
@@ -6940,16 +7161,16 @@
         <v>29</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>24</v>
@@ -6958,7 +7179,7 @@
     </row>
     <row r="66" ht="46.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
@@ -6974,16 +7195,16 @@
     </row>
     <row r="67" ht="150.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>18</v>
@@ -6992,16 +7213,16 @@
         <v>19</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>24</v>
@@ -7010,16 +7231,16 @@
     </row>
     <row r="68" ht="171.75" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>18</v>
@@ -7028,16 +7249,16 @@
         <v>19</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>24</v>
@@ -7046,16 +7267,16 @@
     </row>
     <row r="69" ht="211.5" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>18</v>
@@ -7064,16 +7285,16 @@
         <v>29</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>24</v>
@@ -7082,16 +7303,16 @@
     </row>
     <row r="70" ht="170.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>18</v>
@@ -7100,16 +7321,16 @@
         <v>29</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>24</v>
@@ -7118,16 +7339,16 @@
     </row>
     <row r="71" ht="169.5" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>48</v>
@@ -7136,16 +7357,16 @@
         <v>29</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>24</v>
@@ -7154,16 +7375,16 @@
     </row>
     <row r="72" ht="147.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>48</v>
@@ -7172,16 +7393,16 @@
         <v>29</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>24</v>
@@ -7190,16 +7411,16 @@
     </row>
     <row r="73" ht="100.5" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>48</v>
@@ -7208,16 +7429,16 @@
         <v>29</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>24</v>
@@ -7226,16 +7447,16 @@
     </row>
     <row r="74" ht="90.75" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>18</v>
@@ -7244,16 +7465,16 @@
         <v>29</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>24</v>
@@ -7262,7 +7483,7 @@
     </row>
     <row r="75" ht="42.0" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7278,7 +7499,7 @@
     </row>
     <row r="76" ht="42.0" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
@@ -7294,13 +7515,13 @@
     </row>
     <row r="77" ht="210.75" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8" t="s">
@@ -7310,16 +7531,16 @@
         <v>19</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>24</v>
@@ -7328,13 +7549,13 @@
     </row>
     <row r="78" ht="216.0" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
@@ -7344,36 +7565,36 @@
         <v>29</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" ht="105.0" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>58</v>
@@ -7382,16 +7603,16 @@
         <v>29</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>24</v>
@@ -7400,7 +7621,7 @@
     </row>
     <row r="80" ht="42.0" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
@@ -7416,16 +7637,16 @@
     </row>
     <row r="81" ht="222.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>18</v>
@@ -7434,16 +7655,16 @@
         <v>19</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>24</v>
@@ -7452,16 +7673,16 @@
     </row>
     <row r="82" ht="213.0" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>18</v>
@@ -7470,16 +7691,16 @@
         <v>19</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>24</v>
@@ -7488,16 +7709,16 @@
     </row>
     <row r="83" ht="203.25" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>18</v>
@@ -7506,16 +7727,16 @@
         <v>19</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>24</v>
@@ -7524,16 +7745,16 @@
     </row>
     <row r="84" ht="203.25" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>18</v>
@@ -7542,16 +7763,16 @@
         <v>19</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>24</v>
@@ -7560,16 +7781,16 @@
     </row>
     <row r="85" ht="167.25" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>18</v>
@@ -7578,16 +7799,16 @@
         <v>29</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>24</v>
@@ -7596,16 +7817,16 @@
     </row>
     <row r="86" ht="158.25" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>18</v>
@@ -7614,16 +7835,16 @@
         <v>29</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>24</v>
@@ -7632,16 +7853,16 @@
     </row>
     <row r="87" ht="211.5" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>18</v>
@@ -7650,16 +7871,16 @@
         <v>29</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>42</v>
@@ -7668,16 +7889,16 @@
     </row>
     <row r="88" ht="150.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>18</v>
@@ -7686,16 +7907,16 @@
         <v>29</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>24</v>
@@ -7704,16 +7925,16 @@
     </row>
     <row r="89" ht="102.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>18</v>
@@ -7722,16 +7943,16 @@
         <v>29</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>24</v>
@@ -7740,13 +7961,13 @@
     </row>
     <row r="90" ht="138.75" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
@@ -7756,16 +7977,16 @@
         <v>29</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>24</v>
@@ -7774,16 +7995,16 @@
     </row>
     <row r="91" ht="234.0" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>58</v>
@@ -7792,16 +8013,16 @@
         <v>29</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>24</v>
@@ -7810,16 +8031,16 @@
     </row>
     <row r="92" ht="111.0" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>58</v>
@@ -7828,16 +8049,16 @@
         <v>29</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>24</v>
@@ -7846,7 +8067,7 @@
     </row>
     <row r="93" ht="42.0" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -7862,16 +8083,16 @@
     </row>
     <row r="94" ht="425.25" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>18</v>
@@ -7880,16 +8101,16 @@
         <v>19</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>24</v>
@@ -7898,7 +8119,7 @@
     </row>
     <row r="95" ht="123.75" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="18"/>
@@ -7914,7 +8135,7 @@
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="18"/>
@@ -7930,7 +8151,7 @@
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="18"/>
@@ -7946,7 +8167,7 @@
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="18"/>
@@ -7962,7 +8183,7 @@
     </row>
     <row r="99">
       <c r="A99" s="18" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="18"/>
@@ -7978,7 +8199,7 @@
     </row>
     <row r="100">
       <c r="A100" s="18" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="18"/>
@@ -7994,7 +8215,7 @@
     </row>
     <row r="101">
       <c r="A101" s="18" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="18"/>
@@ -8010,7 +8231,7 @@
     </row>
     <row r="102">
       <c r="A102" s="18" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="18"/>
@@ -8026,7 +8247,7 @@
     </row>
     <row r="103">
       <c r="A103" s="18" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="18"/>
@@ -8042,7 +8263,7 @@
     </row>
     <row r="104">
       <c r="A104" s="18" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="18"/>
@@ -8058,7 +8279,7 @@
     </row>
     <row r="105">
       <c r="A105" s="18" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="18"/>
@@ -8074,7 +8295,7 @@
     </row>
     <row r="106">
       <c r="A106" s="18" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="18"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -3553,15 +3553,14 @@
     <t>Убедиться, что питомец с petId=7 существует в системе</t>
   </si>
   <si>
-    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7 и api_key="valid_api_key" в path запроса
+    <t>1. Отправить DELETE-запрос на эндпоинт /pet/{petId},c параметрами "petId"=7 и api_key="valid_api_key"
 2.Проверить, что статус-код ответа равен "200 OK"
 3. Проверить, что заголовок Content-Type имеет значение application/json
 4. Выполнить запрос GET /pet/{petId=7}
 5. Убедиться что у питомца с petId=7 не существует в системе</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/deletePet
-petId=7
+    <t>URL:https://petstore.swagger.io/v2/pet/7
 api_key="valid_api_key"</t>
   </si>
   <si>
@@ -3586,8 +3585,7 @@
 5. Убедиться что у питомца с petId=10 не существует в системе</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/deletePet
-petId=10</t>
+    <t>URL:https://petstore.swagger.io/v2/pet/10</t>
   </si>
   <si>
     <t>1. Статус-код ответа "200 OK"
@@ -3638,8 +3636,7 @@
 5. Убедиться что у питомца с petId=12 не существует в системе</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/deletePet
-petId=12
+    <t>URL:https://petstore.swagger.io/v2/pet/12
 api_key="Invalid API"</t>
   </si>
   <si>
@@ -3651,7 +3648,7 @@
     <t>API_TC_63</t>
   </si>
   <si>
-    <t>Удаление питомца при передаче "petId" невалидного типа</t>
+    <t>Удаление питомца при передаче "petId" другого формата</t>
   </si>
   <si>
     <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче невалидного "petId"  в качестве строки</t>
@@ -3665,8 +3662,7 @@
 3. Проверить, что в теле ответа есть сообщение (Invalid petId supplied)</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/deletePet
-petId="PETID"</t>
+    <t>URL:https://petstore.swagger.io/v2/pet/PETID</t>
   </si>
   <si>
     <t xml:space="preserve">1. Статус-код ответа "404 Not Found"
@@ -3676,7 +3672,7 @@
     <t>API_TC_64</t>
   </si>
   <si>
-    <t>Удаление питомца при передаче "petId" равное нулю</t>
+    <t>Удаление питомца при передаче "petId" равного нулю</t>
   </si>
   <si>
     <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче "petId"=0</t>
@@ -3689,8 +3685,7 @@
 2.Проверить, что статус-код ответа равен "404 Not Found"</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/deletePet
-petId=0</t>
+    <t>URL:https://petstore.swagger.io/v2/pet/0</t>
   </si>
   <si>
     <t>1. Статус-код ответа "404 Not Found"</t>
@@ -3699,7 +3694,7 @@
     <t>API_TC_65</t>
   </si>
   <si>
-    <t>Удаление питомца при передаче "petId" отрицательное значение</t>
+    <t>Удаление питомца при передаче "petId" отрицательного значения</t>
   </si>
   <si>
     <t>Ответ от эндпоинта DELETE /pet/{petId} при передаче "petId"=-1</t>
@@ -3712,8 +3707,7 @@
 2.Проверить, что статус-код ответа равен "404 Not Found"</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/deletePet
-petId=-1</t>
+    <t>URL:https://petstore.swagger.io/v2/pet/-1</t>
   </si>
   <si>
     <t>API_TC_66</t>
@@ -3732,8 +3726,7 @@
 2.Проверить, что статус-код ответа равен "404 Not Found"</t>
   </si>
   <si>
-    <t>URL:https://petstore.swagger.io/#/pet/deletePet
-petId=7</t>
+    <t>URL:https://petstore.swagger.io/v2/pet/7</t>
   </si>
   <si>
     <t>Store</t>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="885">
   <si>
     <t>Test case id</t>
   </si>
@@ -4350,7 +4350,7 @@
     <t>Убедиться, что "orderId"=7 существует в системе</t>
   </si>
   <si>
-    <t>1.Отправить GET запрос на эндпоинт /store/order/7
+    <t>1.Отправить GET запрос на эндпоинт /store/order/7?extraField=extraValue
 2. Проверить, что статус-код ответа равен "200 Ok"
 3. Проверить структуру и данные ответа
 4. Проверить, что заголовок Content-Type имеет значение application/json</t>
@@ -4370,7 +4370,7 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>https://petstore.swagger.io/v2/store/order/7</t>
+      <t>https://petstore.swagger.io/v2/store/order/7?extraField=extraValue</t>
     </r>
   </si>
   <si>
@@ -4402,6 +4402,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
@@ -4409,9 +4410,8 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t>https://petstore.swagger.io/v2/store/order/1</t>
     </r>
@@ -4423,10 +4423,10 @@
     <t>API_TC_82</t>
   </si>
   <si>
-    <t>Создание нового заказа с передачей валидного body в POST /store/order</t>
-  </si>
-  <si>
-    <t>Корректный ответ от эндпоинта POST /store/order, если передан валидный JSON в теле запроса</t>
+    <t>Создание нового заказа с передачей валидного body в POST /store/order, полем "status"="available"</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта POST /store/order, если передан валидный JSON в теле запроса, поле "status"="available"</t>
   </si>
   <si>
     <t>Убедиться, что в системе отсутствует заказ "orderId"=15</t>
@@ -4446,7 +4446,7 @@
 3. Проверить структуру и тело ответа
 4. Проверить, что заголовок Content-type имеет значение application/json
 5. Выполнить запрос GET /store/order/15
-6. Убедиться что заказ с orderId=15 присутствует в системе и его данные идентичны телу запроса</t>
+6. Убедиться, что заказ с orderId=15 присутствует в системе и его данные идентичны телу запроса</t>
   </si>
   <si>
     <t>URL:https://petstore.swagger.io/v2/store/order
@@ -4465,7 +4465,7 @@
     <t>1. Статус-код "200 Ok"
 2. Тело ответа идентично телу запроса
 3. Заголовок Content-Type имеет значение application/json
-4.При запросе GET /store/order/15 данные заказа совпадают с данными из запроса</t>
+4. При запросе GET /store/order/15 данные заказа совпадают с данными из запроса</t>
   </si>
   <si>
     <t>1. Сервер вернул "200 Ok"
@@ -4477,44 +4477,1826 @@
     <t>API_TC_83</t>
   </si>
   <si>
+    <t>Создание нового заказа с передачей валидного body в POST /store/order, поле "status"="sold"</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта POST /store/order, если передан валидный JSON в теле запроса, поле "status"="sold"</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=16</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 16,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "sold",
+  "complete": true
+}
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/16
+6. Убедиться, что заказ с orderId=16 присутствует в системе и его данные идентичны телу запроса</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+  {
+  "id": 16,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "sold",
+  "complete": true
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/16 данные заказа совпадают с данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ находится в системе при выполнении запроса GET /store/order/16</t>
+  </si>
+  <si>
     <t>API_TC_84</t>
   </si>
   <si>
+    <t>Создание нового заказа с передачей валидного body в POST /store/order, поле "status"="pending"</t>
+  </si>
+  <si>
+    <t>Корректный ответ от эндпоинта POST /store/order, если передан валидный JSON в теле запроса, поле "status"="pending"</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=17</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 17,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/17
+6. Убедиться, что заказ с orderId=17 присутствует в системе и его данные идентичны телу запроса</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+  {
+  "id": 17,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/17 данные заказа совпадают с данными из запроса</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ находится в системе при выполнении запроса GET /store/order/17</t>
+  </si>
+  <si>
     <t>API_TC_85</t>
   </si>
   <si>
+    <t>Создание нового заказа в POST /store/order, но в body отсутствует поле Id</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если в body передан JSON c отсутствующим полем Id</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "petId": 11,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "availalble",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа присутствует сообщение об ошибке
+4. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+  {
+  "petId": 11,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "availalble",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Тело ответа идентично телу запроса
+4. Полю Id присвоено значение "85521516"
+5. Заголовок Content-Type соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Очевидно, что при передаче JSON с отсутствующим полем Id, значение полю Id присваивается автоматически, уточнить, баг это или фича</t>
+  </si>
+  <si>
     <t>API_TC_86</t>
   </si>
   <si>
+    <t>Создание нового заказа  в POST /store/order, но в body отсутствует поле petId</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если в body передан JSON c отсутствующим полем petId</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=18</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "Id": 18,
+  "quantity": 3,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "availalble",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа присутствует сообщение об ошибке
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Убедиться, что в системе не создается новый заказ с orderId=18</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+ {
+  "Id": 18,
+  "quantity": 3,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "availalble",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/18, заказ с orderId=18 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Тело ответа идентично телу запроса
+4. Полю petId присвоено значение "0"
+5. Заголовок Content-Type соответствует ожидаемому результату
+6. Новый заказ находится в системе при выполнении запроса GET /store/order/18</t>
+  </si>
+  <si>
+    <t>Очевидно, что при передаче JSON с отсутствующим полем petId, значение 0 полю petId присваевается по дефолту</t>
+  </si>
+  <si>
     <t>API_TC_87</t>
   </si>
   <si>
+    <t>Создание нового заказа  в POST /store/order, но в body отсутствует поле quantity</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если в body передан JSON c отсутствующим полем quantity</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=19</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "Id": 19,
+"petId": 10,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "availalble",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа присутствует сообщение об ошибке
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Убедиться, что в системе не создается новый заказ с orderId=19</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "Id": 19,
+"petId": 10,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "availalble",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/19, заказ с orderId=19 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Тело ответа идентично телу запроса
+4. Полю quantity присвоено значение "0"
+5. Заголовок Content-Type соответствует ожидаемому результату
+6. Новый заказ находится в системе при выполнении запроса GET /store/order/19</t>
+  </si>
+  <si>
+    <t>Очевидно, что при передаче JSON с отсутствующим полем quantity, значение 0 полю quantity присваивается по дефолту</t>
+  </si>
+  <si>
     <t>API_TC_88</t>
   </si>
   <si>
+    <t>Создание нового заказа  в POST /store/order, но в body отсутствует поле shipDate</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если в body передан JSON c отсутствующим полем shipDate</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=20</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "Id": 20,
+"petId": 14,
+"quantity": 2,
+  "status": "availalble",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа присутствует сообщение об ошибке
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Убедиться, что в системе не создается новый заказ с orderId=20</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "Id": 20,
+"petId": 14,
+"quantity": 2,
+  "status": "availalble",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/20, заказ с orderId=20 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Тело ответа идентично телу запроса
+4. В теле ответа отсутствует поле shipDate
+5. Заголовок Content-Type соответствует ожидаемому результату
+6. Новый заказ находится в системе при выполнении запроса GET /store/order/20, поле shipDate отсутствует</t>
+  </si>
+  <si>
+    <t>Очевидно, что система позволяет создать заказ без указания даты доставки</t>
+  </si>
+  <si>
     <t>API_TC_89</t>
   </si>
   <si>
+    <t>Создание нового заказа  в POST /store/order, но в body отсутствует поле status</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если в body передан JSON c отсутствующим полем status</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=21</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "Id": 21,
+"petId": 7,
+"quantity": 2,
+"shipDate": "2025-01-17T14:04:19.083Z",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа присутствует сообщение об ошибке
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Убедиться, что в системе не создается новый заказ с orderId=21</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "Id": 21,
+"petId": 7,
+"quantity": 2,
+"shipDate": "2025-01-17T14:04:19.083Z",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/21, заказ с orderId=21 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Тело ответа идентично телу запроса
+4. Полю shipDate присвоено значение "2025-01-17T14:04:19.083+0000"
+5. Заголовок Content-Type соответствует ожидаемому результату
+6. Новый заказ находится в системе при выполнении запроса GET /store/order/21</t>
+  </si>
+  <si>
+    <t>Очевидно, что при передаче JSON с отсутствующим полем shipDate, значение полю quantity присваивается автоматически</t>
+  </si>
+  <si>
     <t>API_TC_90</t>
   </si>
   <si>
+    <t>Создание нового заказа  в POST /store/order, но в body отсутствует поле complete</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если в body передан JSON c отсутствующим полем complete</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=22</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "Id": 22,
+"petId": 72,
+"quantity": 2,
+"shipDate": "2025-01-17T14:04:19.083Z",
+   "status": "availalble",
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить, что в теле ответа присутствует сообщение об ошибке
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Убедиться, что в системе не создается новый заказ с orderId=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "Id": 22,
+"petId": 72,
+"quantity": 2,
+"shipDate": "2025-01-17T14:04:19.083Z",
+   "status": "availalble",
+}
+</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/22, заказ с orderId=22 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке: "Bad Input"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ отсутствует в системе при выполнении запроса GET /store/order/22</t>
+  </si>
+  <si>
     <t>API_TC_91</t>
   </si>
   <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле Id строка вместо числа</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле Id строка</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": "TEST",
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/TEST
+6. Убедиться, что заказ с orderId=TEST отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": "TEST",
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/TEST, заказ с orderId=TEST отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "500 Bad Request"
+2. В теле ответа содержится сообщение об ошибке: "something bad happened"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ отсутствует в системе при выполнении запроса GET /store/order/TEST</t>
+  </si>
+  <si>
     <t>API_TC_92</t>
   </si>
   <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле petId строка вместо числа</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле petId строка</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=23</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 23,
+  "petId": "Test",
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/23
+6. Убедиться, что заказ с orderId=23 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 23,
+  "petId": "Test",
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/23, заказ с orderId=23 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "500 Bad Request"
+2. В теле ответа содержится сообщение об ошибке: "something bad happened"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ отсутствует в системе при выполнении запроса GET /store/order/23</t>
+  </si>
+  <si>
     <t>API_TC_93</t>
   </si>
   <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле quantity строка вместо числа</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле quantity строка</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=24</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 24,
+  "petId": 7,
+  "quantity": "New Test",
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/24
+6. Убедиться, что заказ с orderId=24 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 24,
+  "petId": 7,
+  "quantity": "New Test",
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/24, заказ с orderId=24 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "500 Bad Request"
+2. В теле ответа содержится сообщение об ошибке: "something bad happened"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ отсутствует в системе при выполнении запроса GET /store/order/24</t>
+  </si>
+  <si>
     <t>API_TC_94</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле shipDate число вместо даты</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле shipDate число</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=25</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 25,
+  "petId": 7,
+  "quantity": 1,
+  "shipDate": 1,
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/25
+6. Убедиться, что заказ с orderId=25 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 25,
+  "petId": 7,
+  "quantity": 1,
+  "shipDate": 1,
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/25, заказ с orderId=25 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Полю shipDate присвоено значение "1970-01-01T00:00:00.001+0000"
+4. Заголовок Content-Type соответствует ожидаемому результату
+5. Новый заказ присутствует в системе при выполнении запроса GET /store/order/25</t>
+  </si>
+  <si>
+    <t>API_TC_95</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле shipDate строка вместо даты</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле shipDate строка</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 25,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "Test",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/25
+6. Убедиться, что заказ с orderId=25 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 25,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "Test",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>API_TC_96</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле status число вместо строки</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле status число</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=26</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 26,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": 2,
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/26
+6. Убедиться, что заказ с orderId=26 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 26,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": 2,
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/26, заказ с orderId=26 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Полю status присвоено значение "2"
+4. Заголовок Content-Type соответствует ожидаемому результату
+5. Новый заказ присутствует в системе при выполнении запроса GET /store/order/26</t>
+  </si>
+  <si>
+    <t>API_TC_97</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле complete число вместо bool</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле complete число</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=27</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 26,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": 20
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/27
+6. Убедиться, что заказ с orderId=27 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 27,
+  "petId": 9,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": 20
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json
+4. При запросе GET /store/order/27, заказ с orderId=27 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "200 Ok"
+2. В теле ответа отсутствует сообщение об ошибке
+3. Полю status присвоено значение "true"
+4. Заголовок Content-Type соответствует ожидаемому результату
+5. Новый заказ присутствует в системе при выполнении запроса GET /store/order/27</t>
+  </si>
+  <si>
+    <t>API_TC_98</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order полностью отсутствует body</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, в котором отсутствует body</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order без body
+2. Проверить, что статус-код ответа равен "415 Unsupported Media Type"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order</t>
+  </si>
+  <si>
+    <t>1. Статус-код "415 Unsupported Media Type"
+2. В теле ответа содержится сообщение об ошибке
+3.Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "415 Unsupported Media Type"
+2. В теле ответа содержится Exception Message
+3. Заголовок ответа соответсвует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_99</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, body имеет дополнительное поле</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, в котором есть дополнительное поле в body</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=28</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 28,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": true,
+"extraField": "extraValue",
+}
+2. Проверить, что статус-код ответа равен "415 Unsupported Media Type"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 28,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": true,
+"extraField": "extraValue",
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке: "Bad Input"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ отсутствует в системе при выполнении запроса GET /store/order/28</t>
+  </si>
+  <si>
+    <t>API_TC_100</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле Id отрицательное число</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле Id отрицательное число</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": -1,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": true
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": -1,
+  "petId": 7,
+  "quantity": 2,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "pending",
+  "complete": true
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Поле id имеет значение "85521533"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ присутствует в системе при выполнении запроса GET /store/order/85521533</t>
+  </si>
+  <si>
+    <t>Очевидно, что система автоматически присваевает значение для поля Id, если передано отрицательное значение</t>
+  </si>
+  <si>
+    <t>API_TC_101</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле Id равно нулю</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле Id равно нулю</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=0</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 0,
+  "petId": 80,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 0,
+  "petId": 80,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Поле id имеет значение "85521534"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ присутствует в системе при выполнении запроса GET /store/order/85521534</t>
+  </si>
+  <si>
+    <t>Очевидно, что система автоматически присваевает значение для поля Id, если передано нулевое значение</t>
+  </si>
+  <si>
+    <t>API_TC_102</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле Id равно максимально большому значению</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле Id равно максимально большому значению</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=10000000000000000</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 10000000000000000,
+  "petId": 40,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/10000000000000000, убедиться, что заказ с orderId=10000000000000000 присутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 10000000000000000,
+  "petId": 40,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3.Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ присутствует в системе при выполнении запроса GET /store/order/10000000000000000</t>
+  </si>
+  <si>
+    <t>API_TC_103</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле petId равно отрицательному значению</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле petId равно отрицательному значению</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=29</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 29,
+  "petId": -1,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/29, убедиться, что заказ с orderId=29 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 29,
+  "petId": -1,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Поле petid имеет значение "-1"
+4. Заголовок Content-Type соответствует ожидаемому результату
+5. Новый заказ присутствует в системе при выполнении запроса GET /store/order/29</t>
+  </si>
+  <si>
+    <t>API_TC_104</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле petId равно нулю</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле petId равно нулю</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=30</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 30,
+  "petId": 0,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/30, убедиться, что заказ с orderId=30 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 30,
+  "petId": 0,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Поле petid имеет значение "0"
+4. Заголовок Content-Type соответствует ожидаемому результату
+5. Новый заказ присутствует в системе при выполнении запроса GET /store/order/30</t>
+  </si>
+  <si>
+    <t>API_TC_105</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле petId равно максимально большому значению</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле petId равно максимально большому значению</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=31</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 31,
+  "petId": 1000000000000000000000000,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/31, убедиться, что заказ с orderId=31 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 31,
+  "petId": 1000000000000000000000000,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "500 Bad Request"
+2. В теле ответа содержится сообщение об ошибке: "something bad happened"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ отсутствует в системе при выполнении запроса GET /store/order/31</t>
+  </si>
+  <si>
+    <t>API_TC_106</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле quantity равно отрицательному значению</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле quantity равно отрицательному значению</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 31,
+  "petId": 24,
+  "quantity": -1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/31, убедиться, что заказ с orderId=31 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 31,
+  "petId": 24,
+  "quantity": -1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Поле quantity имеет значение "-1"
+4. Заголовок Content-Type соответствует ожидаемому результату
+5. Новый заказ присутствует в системе при выполнении запроса GET /store/order/31</t>
+  </si>
+  <si>
+    <t>API_TC_107</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле quantity равно нулю</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле quantity равно нулю</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=32</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 32,
+  "petId": 24,
+  "quantity": 0,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/32, убедиться, что заказ с orderId=32 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 32,
+  "petId": 24,
+  "quantity": 0,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Поле quantity имеет значение "0"
+4. Заголовок Content-Type соответствует ожидаемому результату
+5. Новый заказ присутствует в системе при выполнении запроса GET /store/order/32</t>
+  </si>
+  <si>
+    <t>API_TC_108</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле quantity равно максимально большому значению</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле quantity равно максимально большому значению</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=33</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 33,
+  "petId": 24,
+  "quantity": 100000000000000000,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/33, убедиться, что заказ с orderId=33 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 33,
+  "petId": 24,
+  "quantity": 100000000000000000,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>API_TC_109</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле shipDate равно прошедшей дате</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле shipDate равно прошедшей дате</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 33,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2024-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/33, убедиться, что заказ с orderId=33 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 33,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2024-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Поле shipDate имеет значение "2024-01-17T14:04:19.083+0000"
+4. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ присутствует в системе при выполнении запроса GET /store/order/33</t>
+  </si>
+  <si>
+    <t>API_TC_110</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле shipDate равно сегодняшней дате</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле shipDate равно сегодняшней дате</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=34</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 34,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2025-02-16T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "200 Ok"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/34, убедиться, что заказ с orderId=34 присутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 34,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2025-02-16T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ присутствует в системе при выполнении запроса GET /store/order/34</t>
+  </si>
+  <si>
+    <t>API_TC_111</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле status равно отличному от стандартного значению</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором поле status равно отличному от стандартного (available, pending, sold) значению</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=35</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 35,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2025-02-16T14:04:19.083Z",
+  "status": "New Status",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/35, убедиться, что заказ с orderId=35 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 35,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2025-02-16T14:04:19.083Z",
+  "status": "New Status",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ присутствует в системе при выполнении запроса GET /store/order/35</t>
+  </si>
+  <si>
+    <t>API_TC_112</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, поле status имеет незакрытые ковычки</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором в поле status имеются незакрытые ковычки</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=36</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 35,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2025-02-16T14:04:19.083Z",
+  "status": "available,
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/36, убедиться, что заказ с orderId=36 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 35,
+  "petId": 24,
+  "quantity": 1,
+  "shipDate": "2025-02-16T14:04:19.083Z",
+  "status": "available,
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>API_TC_113</t>
+  </si>
+  <si>
+    <t>Cоздание нового заказа, но в теле запроса POST /store/order, пропущена запятая между полями</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, в котором пропущена запятая между полями</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе отсутствует заказ "orderId"=37</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса:
+   json
+{
+  "id": 37
+  "petId": 24
+  "quantity": 1
+  "shipDate": "2025-02-16T14:04:19.083Z"
+  "status": "available
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Сделать запрос в GET /store/order/37, убедиться, что заказ с orderId=37 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 37
+  "petId": 24
+  "quantity": 1
+  "shipDate": "2025-02-16T14:04:19.083Z"
+  "status": "available
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул "400 Bad Request"
+2. В теле ответа содержится сообщение об ошибке: "Bad Input"
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Новый заказ отсутствует в системе при выполнении запроса GET /store/order/37</t>
+  </si>
+  <si>
+    <t>API_TC_114</t>
+  </si>
+  <si>
+    <t>Создание дубликата заказа</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, если передан JSON, с данными уже существующего заказа</t>
+  </si>
+  <si>
+    <t>Убедиться, что в системе присутствует заказ "orderId"=15</t>
+  </si>
+  <si>
+    <t>1. Отправить POST-запрос на эндпоинт /store/order с телом запроса из API_TC_82:
+   json
+{
+  "id": 15,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}
+2. Проверить, что статус-код ответа равен "400 Bad Request"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/15
+6. Убедиться, что заказ с orderId=15 присутствует в системе
+7. Убедиться, что данные заказа идентичны полям из API_TC_82</t>
+  </si>
+  <si>
+    <t>URL:https://petstore.swagger.io/v2/store/order
+body:
+json
+{
+  "id": 15,
+  "petId": 12,
+  "quantity": 1,
+  "shipDate": "2025-01-17T14:04:19.083Z",
+  "status": "available",
+  "complete": false
+}</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. Тело ответа идентично телу запроса
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Заказ присутствует в системе при выполнении запроса GET /store/order/15
+5. При выполнении запроса, данные из запроса пересоздали заказ</t>
+  </si>
+  <si>
+    <t>Очевидно, что система перезаписывает уже существующие заказы при повторной попытке создания уже существующего заказа</t>
+  </si>
+  <si>
+    <t>API_TC_115</t>
+  </si>
+  <si>
+    <t>Изменить метод запроса для эндпоинта GET /store/order/</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта POST /store/order, изменив метод POST на GET</t>
+  </si>
+  <si>
+    <t>1.Отправить GET запрос на эндпоинт POST /store/order/
+2. Проверить, что статус-код ответа равен "405 Method not Allowed"
+3. Проверить, что заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <t>DELETE /store/order/{orderId}</t>
+  </si>
+  <si>
+    <t>API_TC_116</t>
+  </si>
+  <si>
+    <t>Удаление заказа при передаче существующего orderId</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /store/order/ при передаче существующего orderId</t>
+  </si>
+  <si>
+    <t>Убедиться, что orderId=15 существует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /store/order/15
+2. Проверить, что статус-код ответа равен "200 OK"
+3. Проверить структуру и тело ответа
+4. Проверить, что заголовок Content-type имеет значение application/json
+5. Выполнить запрос GET /store/order/15
+6. Убедиться, что заказ с orderId=15 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>URL: https://petstore.swagger.io/v2/store/order/15</t>
+  </si>
+  <si>
+    <t>1. Статус-код "200 OK"
+2. В теле ответа присутствует message с orderId удаленного заказа
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "200 OK"
+2. В теле ответа присутствует message с orderId удаленного заказа
+3. Заголовок Content-Type соответствует ожидаемому результату
+4. Заказ отсутствует в системе при выполнении запроса GET /store/order/15</t>
+  </si>
+  <si>
+    <t>API_TC_117</t>
+  </si>
+  <si>
+    <t>Повторное удаление заказа</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /store/order/ при передаче уже удаленного orderId</t>
+  </si>
+  <si>
+    <t>Убедиться, что orderId=15 отсутствует в системе</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /store/order/15
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить структуру и тело ответа
+4. Проверить, что в теле ответа присутствует сообщение об ошибке
+5. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Статус-код "404 Not Found"
+2. В теле ответа присутствует поле "message" c сообщением об ошибке: "Order Not Found"
+3. Заголовок Content-Type имеет значение application/json</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "404 Not Found"
+2. В теле ответа присутствует сообщение об ошибке
+3. Заголовок соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_118</t>
+  </si>
+  <si>
+    <t>Удаление заказа при передаче отрицательного orderId</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /store/order/ при передаче отрицательного orderId</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /store/order/-1
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить структуру и тело ответа
+4. Проверить, что в теле ответа присутствует сообщение об ошибке
+5. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/-1</t>
+    </r>
+  </si>
+  <si>
+    <t>API_TC_119</t>
+  </si>
+  <si>
+    <t>Удаление заказа при передаче orderId равного нулю</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /store/order/ при передаче orderId равного нулю</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /store/order/0
+2. Проверить, что статус-код ответа равен "404 Not Found"
+3. Проверить структуру и тело ответа
+4. Проверить, что в теле ответа присутствует сообщение об ошибке
+5. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/0</t>
+    </r>
+  </si>
+  <si>
+    <t>API_TC_120</t>
+  </si>
+  <si>
+    <t>Удаление заказа при передаче пустого orderId</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /store/order/ при передаче пустого orderId</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /store/order/
+2. Проверить, что статус-код ответа равен "405 Method Not Allowed"
+3. Проверить структуру и тело ответа
+4. Проверить, что в теле ответа присутствует сообщение об ошибке
+5. Проверить, что заголовок Content-type имеет значение application/xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Статус-код "405 Method  Not Allowed"
+2. Заголовок Content-Type имеет значение application/xml</t>
+  </si>
+  <si>
+    <t>1. Сервер вернул статус-код "405 Method Not Allowed"
+2. Заголовок соответствует ожидаемому результату</t>
+  </si>
+  <si>
+    <t>API_TC_121</t>
+  </si>
+  <si>
+    <t>Удаление заказа при передаче orderId в виде строки</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /store/order/ при передаче orderId в виде строки</t>
+  </si>
+  <si>
+    <t>1. Отправить DELETE-запрос на эндпоинт /store/order/TEST
+2. Проверить, что статус-код ответа равен "406 Not Found"
+3. Проверить структуру и тело ответа
+4. Проверить, что в теле ответа присутствует сообщение об ошибке
+5. Проверить, что заголовок Content-type имеет значение application/json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>https://petstore.swagger.io/v2/store/order/TEST</t>
+    </r>
+  </si>
+  <si>
+    <t>API_TC_122</t>
+  </si>
+  <si>
+    <t>Изменить метод запроса для эндпоинта DELETE /store/order/</t>
+  </si>
+  <si>
+    <t>Ответ от эндпоинта DELETE /store/order, изменив метод DELETE на PATCH</t>
+  </si>
+  <si>
+    <t>1.Отправить PATCH запрос на эндпоинт DELETE /store/order/10
+2. Проверить, что статус-код ответа равен "405 Method not Allowed"
+3. Проверить, что заголовок Content-Type имеет значение application/xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4554,11 +6336,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -4624,7 +6401,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4676,35 +6453,17 @@
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8044,7 +9803,7 @@
       <c r="G92" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H92" s="12" t="s">
         <v>590</v>
       </c>
       <c r="I92" s="11" t="s">
@@ -8075,7 +9834,7 @@
       <c r="L93" s="16"/>
     </row>
     <row r="94" ht="425.25" customHeight="1">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="17" t="s">
         <v>592</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -8087,10 +9846,10 @@
       <c r="D94" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="8" t="s">
@@ -8110,253 +9869,1474 @@
       </c>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" ht="123.75" customHeight="1">
-      <c r="A95" s="18" t="s">
+    <row r="95" ht="263.25" customHeight="1">
+      <c r="A95" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="21"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="18" t="s">
+      <c r="B95" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="21"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="18" t="s">
+      <c r="C95" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="21"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="18" t="s">
+      <c r="D95" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="21"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="18" t="s">
+      <c r="E95" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="21"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="18" t="s">
+      <c r="H95" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="21"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="18" t="s">
+      <c r="I95" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="21"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="18" t="s">
+      <c r="J95" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="21"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="18" t="s">
+      <c r="K95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" s="18"/>
+    </row>
+    <row r="96" ht="264.75" customHeight="1">
+      <c r="A96" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="21"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="18" t="s">
+      <c r="B96" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="21"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="18" t="s">
+      <c r="C96" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="21"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="18" t="s">
+      <c r="D96" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="21"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="26"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="26"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="22"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="26"/>
+      <c r="E96" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="18"/>
+    </row>
+    <row r="97" ht="270.0" customHeight="1">
+      <c r="A97" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="98" ht="249.75" customHeight="1">
+      <c r="A98" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99" ht="264.0" customHeight="1">
+      <c r="A99" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="K99" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="100" ht="256.5" customHeight="1">
+      <c r="A100" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101" ht="264.75" customHeight="1">
+      <c r="A101" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="102" ht="260.25" customHeight="1">
+      <c r="A102" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" s="18"/>
+    </row>
+    <row r="103" ht="300.0" customHeight="1">
+      <c r="A103" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L103" s="18"/>
+    </row>
+    <row r="104" ht="293.25" customHeight="1">
+      <c r="A104" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L104" s="18"/>
+    </row>
+    <row r="105" ht="276.75" customHeight="1">
+      <c r="A105" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L105" s="18"/>
+    </row>
+    <row r="106" ht="288.75" customHeight="1">
+      <c r="A106" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L106" s="18"/>
+    </row>
+    <row r="107" ht="285.75" customHeight="1">
+      <c r="A107" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="J107" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="K107" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="108" ht="266.25" customHeight="1">
+      <c r="A108" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L108" s="18"/>
+    </row>
+    <row r="109" ht="302.25" customHeight="1">
+      <c r="A109" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="J109" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="K109" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L109" s="18"/>
+    </row>
+    <row r="110" ht="277.5" customHeight="1">
+      <c r="A110" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="K110" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" s="18"/>
+    </row>
+    <row r="111" ht="271.5" customHeight="1">
+      <c r="A111" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J111" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L111" s="18"/>
+    </row>
+    <row r="112" ht="257.25" customHeight="1">
+      <c r="A112" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="113" ht="240.0" customHeight="1">
+      <c r="A113" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="K113" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="114" ht="319.5" customHeight="1">
+      <c r="A114" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L114" s="18"/>
+    </row>
+    <row r="115" ht="302.25" customHeight="1">
+      <c r="A115" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L115" s="18"/>
+    </row>
+    <row r="116" ht="273.75" customHeight="1">
+      <c r="A116" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L116" s="18"/>
+    </row>
+    <row r="117" ht="289.5" customHeight="1">
+      <c r="A117" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J117" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L117" s="18"/>
+    </row>
+    <row r="118" ht="278.25" customHeight="1">
+      <c r="A118" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L118" s="18"/>
+    </row>
+    <row r="119" ht="267.0" customHeight="1">
+      <c r="A119" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L119" s="18"/>
+    </row>
+    <row r="120" ht="309.75" customHeight="1">
+      <c r="A120" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L120" s="18"/>
+    </row>
+    <row r="121" ht="287.25" customHeight="1">
+      <c r="A121" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="K121" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L121" s="18"/>
+    </row>
+    <row r="122" ht="279.75" customHeight="1">
+      <c r="A122" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122" s="18"/>
+    </row>
+    <row r="123" ht="293.25" customHeight="1">
+      <c r="A123" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J123" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="K123" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L123" s="18"/>
+    </row>
+    <row r="124" ht="320.25" customHeight="1">
+      <c r="A124" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J124" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="K124" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="L124" s="18"/>
+    </row>
+    <row r="125" ht="279.75" customHeight="1">
+      <c r="A125" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="K125" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L125" s="18"/>
+    </row>
+    <row r="126" ht="379.5" customHeight="1">
+      <c r="A126" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J126" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L126" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="127" ht="379.5" customHeight="1">
+      <c r="A127" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L127" s="18"/>
+    </row>
+    <row r="128" ht="46.5" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="16"/>
+    </row>
+    <row r="129" ht="145.5" customHeight="1">
+      <c r="A129" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="K129" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L129" s="18"/>
+    </row>
+    <row r="130" ht="165.75" customHeight="1">
+      <c r="A130" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="J130" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="K130" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L130" s="18"/>
+    </row>
+    <row r="131" ht="162.0" customHeight="1">
+      <c r="A131" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="K131" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131" s="18"/>
+    </row>
+    <row r="132" ht="148.5" customHeight="1">
+      <c r="A132" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="I132" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="K132" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L132" s="18"/>
+    </row>
+    <row r="133" ht="161.25" customHeight="1">
+      <c r="A133" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="I133" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="K133" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L133" s="18"/>
+    </row>
+    <row r="134" ht="144.0" customHeight="1">
+      <c r="A134" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="K134" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L134" s="18"/>
+    </row>
+    <row r="135" ht="184.5" customHeight="1">
+      <c r="A135" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L135" s="18"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E53 E55:E65 E67:E74 E77:E79 E81:E92 E94:E106">
+    <dataValidation type="list" allowBlank="1" sqref="E4:E8 E10:E18 E20:E27 E29:E53 E55:E65 E67:E74 E77:E79 E81:E92 E94:E127 E129:E135">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F53 F55:F65 F67:F74 F77:F79 F81:F92 F94:F106">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F8 F10:F18 F20:F27 F29:F53 F55:F65 F67:F74 F77:F79 F81:F92 F94:F127 F129:F135">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" location="/pet/uploadFile" ref="H26"/>
-    <hyperlink r:id="rId2" ref="H92"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>